--- a/test_resource/Extracted_methods.xlsx
+++ b/test_resource/Extracted_methods.xlsx
@@ -40,7 +40,7 @@
     <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\typescript_sample.ts_constructor', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\typescript_sample.ts_greeter']</t>
   </si>
   <si>
-    <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\typescript_sample.js_Student', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\typescript_sample.js_greeter']</t>
+    <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\typescript_sample.js_greeter']</t>
   </si>
   <si>
     <t>['public void afterAll() {\r\nsuper.restoreStreams()\r\n}\r\n', 'public void beforeAll() {\r\nsuper.setUpStreams()\r\n}\r\n', 'private String getCerberusCommandLineUsageString() {\r\nreturn new StringBuilder().append("Usage: Cerberus [COMMAND]").append(NEW_LINE).append("Waking Cerberus to devour bad things in the system").append(NEW_LINE).append("Commands:")\r\n.append(NEW_LINE).append("  CPD            Detect duplicated blocks of code in your source code").append(NEW_LINE)\r\n.append("  SWD            Detect all the warnings which are suppressed in your code").append(NEW_LINE).append("  JPMD           Java Programming Mistakes Detector")\r\n.append(NEW_LINE).append("  JCMD           Java Code Metrics Detector").append(NEW_LINE).toString()\r\n}\r\n', 'public void testCallMethod() throws Exception {\r\nassertEquals(Integer.valueOf(0), new Cerberus().call())\r\n}\r\n', 'public void testCerebrusWithArguments() {\r\ngetOriginalOutputStream().flush()\r\nCerberus.main(new String[] { "CPD" })\r\n}\r\n', 'public void testCerebruswithOutArguments() {\r\nCerberus.main(new String[] {})\r\nString expectedOutputString = getCerberusCommandLineUsageString()\r\nassertEquals(expectedOutputString, getModifiedOutputStream().toString())\r\n}\r\n', 'public void testCerebruswithWrongArguments() {\r\nString dummyArgument = "dummy argument"\r\nCerberus.main(new String[] { dummyArgument })\r\nString expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: \'dummy argument\'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString()\r\n}\r\n', 'public String index1() {\r\nreturn "Final"\r\n}\r\n', 'public String index2() throws IOException {\r\nfinal String cmd1 = "git clone " + str\r\nfinal ProcessBuilder builder1 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + cmd1)\r\nfinal Process p = builder1.start()\r\ntry {\r\np.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nString fileName = str.substring(str.lastIndexOf(\'/\') + 1)\r\nfileName = fileName.substring(0, fileName.length() - 4)\r\n\r\nfinal String cmd2 = "jscpd --min-" + str1 + " " + str2\r\n+ " --reporters html --output C:\\\\test --mode strict C:\\\\test\\\\" + fileName\r\n\r\nfinal ProcessBuilder builder2 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + cmd2)\r\nfinal Process p1 = builder2.start()\r\ntry {\r\np1.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nfinal String command3 = "RD /S /Q  C:\\\\test\\\\" + fileName\r\nfinal ProcessBuilder builder3 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + command3)\r\nfinal Process p3 = builder3.start()\r\ntry {\r\np3.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nfinal long seconds = System.currentTimeMillis()\r\nfinal String rname = seconds + "-" + fileName + "-jscpd-report.html"\r\n\r\nfinal String command4 = "ren " + "jscpd-report.html " + rname\r\nfinal ProcessBuilder builder5 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + command4)\r\nfinal Process p4 = builder5.start()\r\ntry {\r\np4.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nfinal String cmd3 = "start " + rname\r\nfinal ProcessBuilder builder4 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + cmd3)\r\nfinal Process p2 = builder4.start()\r\ntry {\r\np2.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nfinal String excelFilePath = "C:\\\\test\\\\Data_log.xlsx"\r\nfinal FileInputStream inputStream = new FileInputStream(new File(excelFilePath))\r\nfinal Workbook workbook = WorkbookFactory.create(inputStream)\r\n\r\nfinal Sheet sheet = workbook.getSheetAt(0)\r\n\r\nfinal int rowCount = sheet.getLastRowNum()\r\nfinal Row row = sheet.getRow(rowCount)\r\nfinal int columnCount = 1\r\n\r\nfinal Cell cell = row.createCell(columnCount)\r\ncell.setCellValue("C:\\\\test\\\\" + rname)\r\n\r\ninputStream.close()\r\n\r\nfinal FileOutputStream outputStream = new FileOutputStream("C:\\\\test\\\\Data_log.xlsx")\r\nworkbook.write(outputStream)\r\nworkbook.close()\r\noutputStream.close()\r\n\r\nSystem.out.println("Got your Report")\r\n\r\nreturn "Final"\r\n\r\n}\r\n', 'public String meth(@RequestParam("Source_URL") final String name, @RequestParam("tok_lin") final String name1,\r\n@RequestParam("count") final String name2) throws IOException {\r\n\r\nstr = name\r\nstr1 = name1\r\nstr2 = name2\r\nfinal String rname = "Output.py"\r\nfinal String command5 = "ren " + str + " " + rname\r\nfinal ProcessBuilder builder6 = new ProcessBuilder("cmd.exe", "/c",\r\n"cd \\"C:\\\\Users\\\\320074769\\\\Downloads\\" &amp;&amp; " + command5)\r\nfinal Process p5 = builder6.start()\r\ntry {\r\np5.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\n\r\nfinal String command4 = "python " + rname\r\nfinal ProcessBuilder builder5 = new ProcessBuilder("cmd.exe", "/c",\r\n"cd \\"C:\\\\Users\\\\320074769\\\\Downloads\\" &amp;&amp; " + command4)\r\n\r\nfinal Process p4 = builder5.start()\r\ntry {\r\np4.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nreturn "\\"Got your report :)\\""\r\n\r\n}\r\n', 'function ARSorting(columnName,sortingOrder,study)\r\n{\r\nvar commonGrid= Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]\r\nvar prop = new Array( "ClrClassName","Name","Visible" )\r\nvar Val = new Array("BoundColumnSelectedGrid","[\\"WinFormsObject\\"](\\"grid\\")",true )\r\n\r\nif(study)\r\n{\r\nvar grid=commonGrid["SplitterPanel"]["FindChild"](prop,Val, 100)\r\n}\r\nelse\r\n{\r\nvar grid=commonGrid["SplitterPanel_1"]["FindChild"](prop,Val, 100)\r\n}\r\nif(grid["Exists"])\r\n{\r\nvar columnCount=grid["DefaultView"]["Columns"]["Count"]\r\nfor(var i=0\r\n{\r\nvar colName=grid["DefaultView"]["Columns"]["Item_2"](i)["Caption"]["OleValue"]\r\nif(VarToStr(colName)==VarToStr(columnName))\r\n{\r\ngrid["DefaultView"]["Columns"]["Item_2"](i)["set_SortOrder"](sortingOrder)\r\nbreak\r\n}\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("grid does not exists")\r\n}\r\nWait(2)\r\n}\r\n', 'function AutoRefreshImport(path,folderName,MRstudy_vendor)\r\n{\r\n\r\nvar gridcount \r\nvar pdcount \r\nvar flag =0\r\nvar status1 = false\r\nvar status2 = false\r\n\r\nvar pdProc = Sys["Process"]("PatientDirectory")\r\nproperties = new Array( "ClrClassName","Name", "Visible" )\r\nvalues = new Array("PmsButtonMatrixCombo","[\\"WinFormsObject\\"](\\"matrixCombo\\")",true )\r\nvar folderSpace= pdProc["FindChild"](properties, values, 100)\r\nif(folderSpace["Exists"])\r\n{\r\nfolderSpace["ClickR"]()\r\nContextMenu("Import Data")\r\nvar importDialog= pdProc["WinFormsObject"]("PmsImportDialog")\r\nif(importDialog["Exists"])\r\n{\r\nvar sourcePath=importDialog["WinFormsObject"]("panel2")["WinFormsObject"]("pathHistoryCombo")\r\nsourcePath["SetText"](path)\r\nsourcePath["Keys"]("[Enter]")\r\n\r\nvar propVal = new Array( "ClrClassName","Visible" )\r\nvar varVal = new Array("FileSystemListView",true )\r\nvar sourceFolder= pdProc["FindChild"](propVal, varVal, 100)\r\nsourceFolder["ClickItem"](folderName)\r\nvar okButton= importDialog["WinFormsObject"]("panel3")["WinFormsObject"]("panel1")["WinFormsObject"]("btnOK")\r\nokButton["Click"]()\r\nLog["Message"]("Clicking on ok button")\r\nWait(1)\r\n\r\nvar prop = new Array( "ClrClassName","Visible" )\r\nvar Val = new Array("PmsProgressBar",true )\r\nvar progressBar= pdProc["FindChild"](prop,Val, 100)\r\nif(progressBar["Exists"])\r\n{\r\nwhile(progressBar["Exists"])\r\n{\r\nif(progressBar["Value"] &gt; 25 &amp;&amp; progressBar["Value"] &lt; 30 &amp;&amp; flag == 0)\r\n{\r\ngridcount = StudyCount()\r\npdcount = CopyDeleteLibrary["GetStudyCounts"]("Display")\r\n\r\nif(gridcount == pdcount)\r\n{\r\nLog["Message"](" Study counts are equal")\r\nstatus1 = true\r\n}\r\nelse\r\nLog["Warning"]("Study counts are not equal")\r\n\r\nflag = 1\r\n}\r\n\r\nif(progressBar["Value"] &gt; 50 &amp;&amp; progressBar["Value"] &lt; 55 &amp;&amp; flag == 1)\r\n{\r\nSelectPatient(MRstudy_vendor)\r\nif(flag == 1)\r\n{\r\nstatus2 = VerifyisPatientSelected(MRstudy_vendor)\r\nif(status2)\r\n{\r\nLog["Message"](MRstudy_vendor+" study is marked with blue background")\r\n}\r\nelse\r\n{\r\nLog["Warning"](MRstudy_vendor+"study is not marked with blue background")\r\nstatus1 = false\r\n}\r\nflag = 2\r\n}\r\n}\r\n\r\nif(progressBar["Value"] &gt; 70 &amp;&amp; progressBar["Value"] &lt; 75 &amp;&amp; flag == 2)\r\n{\r\nARSorting("Patient Name","Ascending",true)\r\nSelectPatient(MRstudy_vendor)\r\nstatus2 = VerifyisPatientSelected(MRstudy_vendor)\r\nif(status2)\r\n{\r\nLog["Message"](MRstudy_vendor+" study is marked with blue background after sorting in ascending order")\r\n}\r\nelse\r\n{\r\nLog["Warning"](MRstudy_vendor+"study is not marked with blue background after sorting in ascending order")\r\nstatus1 = false\r\n}\r\nflag = 3\r\n}\r\n\r\nif(progressBar["Value"] &gt; 90 &amp;&amp; progressBar["Value"] &lt; 95 &amp;&amp; flag == 3)\r\n{\r\nARSorting("Patient Name","Descending",true)\r\nSelectPatient(MRstudy_vendor)\r\nstatus2 = VerifyisPatientSelected(MRstudy_vendor)\r\nif(status2)\r\n{\r\nLog["Message"](MRstudy_vendor+" study is marked with blue background after sorting in descending order")\r\n}\r\nelse\r\n{\r\nLog["Warning"](MRstudy_vendor+"study is not marked with blue background after sorting in descending order")\r\nstatus1 = false\r\n}\r\nflag = 4\r\n}\r\nWait(1)\r\n}\r\nreturn status1\r\n}\r\nelse\r\n{\r\nproperties = new Array( "ClrClassName", "Visible" )\r\nvalues = new Array("PmsStatusInformationCombo",true )\r\nvar messageForm= pdProc["FindChild"](properties, values, 100)\r\nvar messageCount=messageForm["Items"]["Count"]-1\r\nvar message=messageForm["Items"]["Item"](messageCount)["Message"]["OleValue"]\r\nif(message=="Import Ended")\r\n{\r\nLog["Message"]("Import successful")\r\nreturn true\r\n}\r\nelse\r\n{\r\nLog["Error"]("Progress bar not found")\r\nreturn false\r\n}\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("ImportDialog doesn\'t exist")\r\nreturn false\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("Folder space doesn\'t exists")\r\nreturn false\r\n}\r\n}\r\n', 'function ChangePatientDetails(fName,lName,DefaultDevice)\r\n{\r\nvar CPD=Aliases["PatientDirectory"]["CPD"]\r\nCPD["WaitProperty"]("Exists", true, 30000)\r\nAliases["PatientDirectory"]["PmsMessageBox"]["OK"]["Click"]()\r\nWait(1)\r\nif(fName!="")\r\n{\r\nCPD["firstName"]["SetText"](fName)\r\n}\r\nif(lName!="")\r\n{\r\nCPD["lastName"]["SetText"](lName)\r\n}\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("CreateNewStudyForm")["WinFormsObject"]("raisedPanel")["WinFormsObject"]("chooseDevicesButton")["ClickButton"]()\r\n\r\nChoosefolder("Local",DefaultDevice)\r\nCPD["save"]["ClickButton"]()\r\nWait(1)\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("Yes")["Click"]()\r\nProgressBar()\r\n}\r\n', 'function Choosefolder(folderType,folderName)\r\n{\r\nWait(2)\r\nvar copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"]\r\nif(copyDialogBox["resetButton"]["Enabled"])\r\n{\r\ncopyDialogBox["resetButton"]["ClickButton"]()\r\n}\r\nif(copyDialogBox["Exists"])\r\n{\r\nif(VarToStr(folderType)=="Local")\r\n{\r\nvar folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](0)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Local Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nelse if(VarToStr(folderType)=="Remote")\r\n{\r\nfolderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](1)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Remote Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nvar copied=false\r\nfor(var i=0\r\n{\r\nvar folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"])\r\nif(folder==folderName)\r\n{\r\nif(matrix["Buttons"]["Item"](i)["Enabled"])\r\n{\r\ncopied=true\r\nvar X=matrix["Buttons"]["Item"](i)["location_2"]["X"]\r\nvar Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"]\r\nWait(1)\r\nlocation["Click"](X+10,Y+10)\r\nWait(2)\r\ncopyDialogBox["okButton"]["Click"]()\r\nbreak\r\n}\r\nelse\r\n{\r\nLog["Error"]("Folder "+folderName+" is not enabled ")\r\nAddCheckpointResultToReport(false,"","Folder "+folderName+" is not enabled ")\r\nbreak\r\n}\r\n}\r\n}\r\nif(!copied)\r\n{\r\nAliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]()\r\nWait(1)\r\nAddCheckpointResultToReport(false,"","Required folder not found"+folderName)\r\nLog["Error"]("Required folder not found"+folderName)\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("copyDialogbox doesnot exist")\r\nAddCheckpointResultToReport(false,"","copyDialogbox doesnot exist")\r\nreturn false\r\n}\r\nWait(2)\r\nreturn copied\r\n}\r\n', 'function DeidentifyPatientDetails(lName,DefaultDevice)\r\n{\r\nvar dpd = Sys["Process"]("PatientDirectory")["WinFormsObject"]("AnonymiseForm")\r\ndpd["WaitProperty"]("Exists", true, 30000)\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("OK")["ClickButton"]()\r\nvar arrys = new Array("ClrClassName","Name", "Visible")\r\nvar values = new Array("PmsToolPanel","[\\"WinFormsObject\\"](\\"raisedPanel\\")",true )\r\nvar panel = dpd["FindChild"](arrys,values,100)["WinFormsObject"]("patientDetailsPanel")\r\n\r\nif(lName!="" )\r\n{\r\npanel["WinFormsObject"]("lastNameTextBox")["SetText"](lName)\r\n}\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("AnonymiseForm")["WinFormsObject"]("raisedPanel")["WinFormsObject"]("chooseDevicesButton")["ClickButton"]()\r\n\r\nChoosefolder("Local",DefaultDevice)\r\ndpd["WinFormsObject"]("saveButton")["ClickButton"]()\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("Yes")["Click"]()\r\nProgressBar()\r\n}\r\n', 'function DeleteAllStudies()\r\n{\r\nvar studygrid = StudyGrid()\r\n\r\nstudygrid["Views"]["Item"](0)["SelectAll"]()\r\nSyncWithStopButton()\r\nAliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolsPanel"]["leftPanel"]["toolbox"]["panel"]["deleteButton"]["Click"]()\r\nWait(1)\r\nAliases["PatientDirectory"]["PmsMessageBox"]["Yes"]["Click"]()\r\nSyncWithStopButton()\r\nWait(5)\r\n}\r\n', 'function GetPictorialIndex()\r\n{\r\nvar panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]\r\nvar propValues = new Array( "ClrClassName", "Visible" )\r\nvar varValues = Array( "PictorialLayoutControl", true )\r\nvar pictorialLayout = panelMain["FindChild"](propValues, varValues, 30)\r\nreturn pictorialLayout\r\n}\r\n', 'function GetPictorialIndexSeriesNobyDescription(description)\r\n{\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar indexstatus = false\r\nvar picounts = pictorialLayout["Controls"]["Count"]\r\n\r\nfor(var i=0\r\n{\r\nif(description == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_DESCRIPTION"])\r\n{\r\nLog["Message"](i)\r\nindexstatus = true\r\nvar seriesno = pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"]\r\nreturn seriesno\r\nbreak\r\n}\r\n}\r\n\r\nif(!indexstatus)\r\n{\r\nLog["Checkpoint"]("Series not found")\r\n}\r\n}\r\n', 'function PIContextMenuCopyTo(folderType,folderName)\r\n{\r\n\r\nvar panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]\r\nvar propValues = new Array( "ClrClassName", "Visible" )\r\nvar varValues = Array( "PictorialLayoutControl", true )\r\nvar pictorialLayout = panelMain["FindChild"](propValues, varValues, 30)\r\n\r\npictorialLayout["ClickR"](50,50)\r\nContextMenu("Copy To")\r\nvar copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"]\r\nif(copyDialogBox["resetButton"]["Enabled"])\r\n{\r\ncopyDialogBox["resetButton"]["ClickButton"]()\r\n}\r\nif(copyDialogBox["Exists"])\r\n{\r\nif(VarToStr(folderType)=="Local")\r\n{\r\nvar folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](0)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Local Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nelse if(VarToStr(folderType)=="Remote")\r\n{\r\nfolderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](1)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Remote Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nvar copied=false\r\nfor(var i=0\r\n{\r\nvar folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"])\r\nif(folder==folderName)\r\n{\r\ncopied=true\r\nvar X=matrix["Buttons"]["Item"](i)["location_2"]["X"]\r\nvar Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"]\r\nWait(1)\r\nlocation["Click"](X+10,Y+10)\r\nWait(2)\r\ncopyDialogBox["okButton"]["Click"]()\r\nbreak\r\n}\r\n}\r\nif(!copied)\r\n{\r\nAliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]()\r\nWait(1)\r\nLog["Error"]("Required folder not found"+folderName)\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("copyDialogbox doesnot exist")\r\n}\r\nWait(2)\r\n}\r\n', 'function PIContextMenuCopyToRighClick(folderType,folderName)\r\n{\r\n\r\nvar panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]\r\nvar propValues = new Array( "ClrClassName", "Visible" )\r\nvar varValues = Array( "PictorialLayoutControl", true )\r\nvar pictorialLayout = panelMain["FindChild"](propValues, varValues, 30)\r\n\r\nContextMenu("Copy To")\r\nvar copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"]\r\nif(copyDialogBox["resetButton"]["Enabled"])\r\n{\r\ncopyDialogBox["resetButton"]["ClickButton"]()\r\n}\r\nif(copyDialogBox["Exists"])\r\n{\r\nif(VarToStr(folderType)=="Local")\r\n{\r\nvar folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](0)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Local Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nelse if(VarToStr(folderType)=="Remote")\r\n{\r\nfolderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](1)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Remote Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nvar copied=false\r\nfor(var i=0\r\n{\r\nvar folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"])\r\nif(folder==folderName)\r\n{\r\ncopied=true\r\nvar X=matrix["Buttons"]["Item"](i)["location_2"]["X"]\r\nvar Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"]\r\nWait(1)\r\nlocation["Click"](X+10,Y+10)\r\nWait(2)\r\ncopyDialogBox["okButton"]["Click"]()\r\nbreak\r\n}\r\n}\r\nif(!copied)\r\n{\r\nAliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]()\r\nWait(1)\r\nLog["Error"]("Required folder not found"+folderName)\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("copyDialogbox doesnot exist")\r\n}\r\nWait(2)\r\n}\r\n', 'function PIToggle()\r\n{\r\nAliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]["tabControl"]["seriesPage"]["toggleButton"]["Click"]()\r\nWait(5)\r\nvar PI=Aliases["PatientDirectory"]["PatientDirectoryForm"]["FindChild"]("ClrClassName","PictorialIndexPanel",100)\r\nif(PI["VisibleOnScreen"])\r\n{\r\nLog["Checkpoint"]("Series Thumbnail view is displayed on toggling")\r\nstatus2=true\r\n}\r\nelse\r\n{\r\nLog["Error"]("Series Thumbnail view is not displayed on toggling")\r\nstatus2=false\r\n}\r\nreturn status2\r\n}\r\n', 'function ProgressBar()\r\n{\r\nvar pdProc = Sys["Process"]("PatientDirectory")\r\nvar prop = new Array( "ClrClassName","Visible" )\r\nvar Val = new Array("PmsProgressBar",true )\r\nvar progressBar= pdProc["FindChild"](prop,Val, 100)\r\nif(progressBar["Exists"])\r\n{\r\nvar citimeOut = 0\r\nwhile(progressBar["Exists"])\r\n{\r\nDelay(1000, "waiting for progess bar to complete")\r\ncitimeOut++\r\nif(citimeOut &gt; 300)\r\nbreak\r\n}\r\nLog["Message"]("Change Patient Details successful")\r\nreturn true\r\n}\r\nelse\r\n{\r\nproperties = new Array( "ClrClassName", "Visible" )\r\nvalues = new Array("PmsStatusInformationCombo",true )\r\nvar messageForm= pdProc["FindChild"](properties, values, 100)\r\nvar messageCount=messageForm["Items"]["Count"]-1\r\nvar message=messageForm["Items"]["Item"](messageCount)["Message"]["OleValue"]\r\nif(message=="Change Patient Details successfully completed.  1 entries were saved. Some instances were ignored.  " ||\r\nmessage=="Change Patient Details operation started")\r\n{\r\nLog["Message"]("Change Patient Details successful")\r\nreturn true\r\n}\r\nelse\r\n{\r\nLog["Error"]("Progress bar not found")\r\nreturn false\r\n}\r\n}\r\n}\r\n', 'function RightClickPISelectedSeries()\r\n{\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar seriesbefore =  pictorialLayout["Controls"]["Count"]\r\nfor(var i=0\r\n{\r\nif(pictorialLayout["Controls"]["Item"](i)["Card"]["Selected"])\r\n{\r\nindexstatus = true\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\r\nx =pictorialLayout["Controls"]["Item_2"](i)["Location"]["X"]\r\ny = pictorialLayout["Controls"]["Item_2"](i)["Location"]["Y"]\r\nwidth = pictorialLayout["Controls"]["Item_2"](i)["Width"]\r\nheight =  pictorialLayout["Controls"]["Item_2"](i)["Height"]\r\n\r\npictorialLayout["HoverMouse"](x + (width/2) , y + (height/2))\r\npictorialLayout["ClickR"](x + (width/2) , y + (height/2))\r\npictorialLayout["Keys"]("[Esc]")\r\n}\r\n}\r\n}\r\n', 'function RunScriptsinRemoteSystem(RemoteIP,AdminUsername,AdminPassword,BasePath,ProjectSuitePath,HostName)\r\n{\r\nvar Host = NetworkSuite["Hosts"]["ItemByName"](HostName)\r\nHost["Address"] = RemoteIP\r\nHost["BasePath"] = BasePath\r\nHost["ProjectSourcePath"] = ProjectSuitePath\r\nHost["UserName"] = AdminUsername\r\nHost["Password"] = AdminPassword\r\nHost["CopyProjectToSlave"]()\r\n\r\nif (Host["Verify"]() == false)\r\n{\r\ni = MessageDlg(Host["Address"] + " machine not able to find in the network, Execution terminated", mtError, i, 0)\r\nreturn\r\n}\r\nelse\r\n{\r\nreturn true\r\n}\r\n}\r\n', 'function SelectPISeriesByMouseHover(series)\r\n{\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar seriesbefore =  pictorialLayout["Controls"]["Count"]\r\nSelectPictorialSeriesBySeriesValue(series)\r\nvar x\r\nvar y\r\nvar width\r\nvar height\r\npictorialLayout["VerticalScroll"]["EnableScroll"](true)\r\nfor(var i=0\r\n{\r\nif(series == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"])\r\n{\r\nindexstatus = true\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\r\nx =pictorialLayout["Controls"]["Item_2"](i)["Location"]["X"]\r\ny = pictorialLayout["Controls"]["Item_2"](i)["Location"]["Y"]\r\nwidth = pictorialLayout["Controls"]["Item_2"](i)["Width"]\r\nheight =  pictorialLayout["Controls"]["Item_2"](i)["Height"]\r\n\r\npictorialLayout["HoverMouse"](x + (width/2) , y + (height/2))\r\npictorialLayout["ClickR"](x + (width/2) , y + (height/2))\r\nDelay(5000)\r\nbreak\r\n}\r\n}\r\n}\r\n', 'function SelectPictorialSeriesByIndexvalue(series,description)\r\n{\r\nvar indexstatus = false\r\n\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar picounts = pictorialLayout["Controls"]["Count"]\r\nfor(var i=0\r\n{\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](false)\r\n}\r\nfor(var i=0\r\n{\r\nif(description == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_DESCRIPTION"])\r\n{\r\nLog["Message"](i)\r\nindexstatus = true\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\r\nreturn i\r\nbreak\r\n}\r\n}\r\n\r\nif(!indexstatus)\r\n{\r\nLog["Checkpoint"]("Series not found")\r\n}\r\n}\r\n', 'function SelectPictorialSeriesBySeriesValue(series)\r\n{\r\n\r\nseriesno=series["split"](",")\r\nvar indexstatus = false\r\nvar v = -1\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar picounts = pictorialLayout["Controls"]["Count"]\r\nfor(var i=0\r\n{\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](false)\r\n}\r\nfor(var testj=0\r\n{\r\nindexstatus = false\r\nfor(var i=0\r\n{\r\nif(seriesno[testj] == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"])\r\n{\r\nLog["Message"](i)\r\nindexstatus = true\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\r\nv = i\r\n}\r\n}\r\n}\r\n\r\nif(!indexstatus)\r\n{\r\nLog["Checkpoint"]("Series not found")\r\n}\r\nreturn v\r\n}\r\n', 'function SeriesFilesCount()\r\n{\r\nvar seriesPanel=Sys["Process"]("PatientDirectory")["FindChild"]("ClrClassName","filePanel",100)\r\nvar grid=seriesPanel["FindChild"]("ClrClassName","BoundColumnSelectedGrid",100)\r\nvar seriesCount=grid["Views"]["Item"](0)["DataRowCount"]\r\nreturn seriesCount\r\n}\r\n', 'function SeriesReportCount()\r\n{\r\nvar seriesPanel=Sys["Process"]("PatientDirectory")["FindChild"]("ClrClassName","ReportPanel",100)\r\nvar grid=seriesPanel["FindChild"]("ClrClassName","BoundColumnSelectedGrid",100)\r\nvar seriesCount=grid["Views"]["Item"](0)["DataRowCount"]\r\nreturn seriesCount\r\n}\r\n', 'function SeriesSelect(index)\r\n{\r\nvar properties\r\nvar values\r\n\r\nproperties = new Array("Name","Visible")\r\nvalues = new Array("[\\"WinFormsObject\\"](\\"tabControl\\"))","True")\r\n\r\nvar SeriesTab = Sys["Process"]("PatientDirectory")["WinFormsObject"]("PatientDirectoryForm")["WinFormsObject"]("mainContainerPanel")["WinFormsObject"]("rightPanel")["WinFormsObject"]("SplitContainer", "", 1)["WinFormsObject"]("SplitterPanel", "", 2)["FindChild"](properties, values, 100)\r\n\r\nfor(var i=0\r\n{\r\nif(i==1)\r\ncontinue\r\n\r\ndelay(1000)\r\nSeriesTab["ClickTab"](SeriesTab["wTabCaption"](i))\r\nLog["Message"]("Select tab is"+SeriesTab["SelectedIndex"]+ " "+SeriesTab["CanFocus"])\r\n\r\nif(i ==  index)\r\nbreak\r\n}\r\n}\r\n', 'function VerifyCSROIApplication()\r\n{\r\nvar calciumScoring\r\nvar CSMainScene\r\nvar pmsToolPanel\r\nvar tableLayoutPanel\r\nvar pmsComboBox\r\nvar fieldname = new Array()\r\nvar fieldvalue = new Array()\r\nvar afterfieldname = new Array()\r\nvar afterfieldvalue = new Array()\r\nvar check =  true\r\nvar ispib = aqConvert["VarToBool"](ReadLoginSheet("pibMachine"))\r\nvar process = "PortalAppletHost"\r\nif(ispib)\r\nprocess = "PortalAppletHost64"\r\n\r\ncalciumScoring = Sys["Process"](process)\r\nWait(3)\r\n\r\nproperties = new Array("ClrClassName","Name", "Visible")\r\nvalues = new Array("GridControl","[\\"WinFormsObject\\"](\\"gridControl1\\")", true)\r\nimagegrid  = calciumScoring["FindChild"](properties, values, 100)\r\ngridcolcount = imagegrid["DataSource"]["Columns"]["Count"]\r\nfor(var i = 0\r\n{\r\nif(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="Total Coronaries")\r\n{\r\ntemp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"]\r\nfor(var j = 0\r\n{\r\nfieldvalue[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]\r\n}\r\n}\r\n\r\nif(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="RowName")\r\n{\r\ntemp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"]\r\nfor(var j = 0\r\n{\r\nfieldname[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]\r\n}\r\n}\r\n}\r\nWait(3)\r\n\r\nproperties = new Array("Name", "Visible")\r\nvalues = new Array("[\\"WinFormsObject\\"](\\"manualSeed\\")", true)\r\n\r\nmanualseed = calciumScoring["FindChild"](properties,values, 100)["WinFormsObject"]("comboButton")\r\nmanualseed["Click"]()\r\n\r\nproperties = new Array("ClrClassName", "Visible")\r\nvalues = new Array("ImageViewer", "True")\r\n\r\nimageViewer = calciumScoring["FindChild"](properties, values, 100)\r\nimageViewer["Click"](575, 216)\r\nimageViewer["Click"](600, 216)\r\nWait(3)\r\n\r\nfor(var i = 0\r\n{\r\nif(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="Total Coronaries")\r\n{\r\ntemp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"]\r\nfor(var j = 0\r\n{\r\nafterfieldvalue[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]\r\n}\r\n}\r\n}\r\n\r\nfor(var i=0\r\n{\r\nif(fieldvalue[i]!=afterfieldvalue[i])\r\n{\r\nLog["Checkpoint"](fieldname[i]+ " Before ROI value is "+fieldvalue[i]+" After ROI value is "+afterfieldvalue[i])\r\ncheck =  true\r\n}\r\nelse\r\n{\r\nLog["Error"](fieldname[i]+ " Before ROI value is "+fieldvalue[i]+" After ROI value is "+afterfieldvalue[i])\r\ncheck =  false\r\nbreak\r\n}\r\n}\r\n\r\nfor (var i = 0\r\n{\r\nroi = imageViewer["ImagePresentationState"]["ImageRelativeAnnotators"]["Item"](i)["ClrClassName"]\r\nif (roi == "CsMFHCAnnotator")\r\n{\r\nLog["Checkpoint"]("ROI is available on ImageViewer")\r\ncheck =  true\r\nbreak\r\n}\r\n}\r\nreturn check\r\n}\r\n', 'function VerifyisPatientSelected(pname)\r\n{\r\n\r\nvar studyGrid = StudyGrid()\r\n\r\nvar rowCount= studyGrid["DataSource"]["Table"]["Rows"]["Count"]\r\nfor(var j=0\r\n{\r\nWait(1)\r\nif(studyGrid["FocusedView"]["GetDataRow"](j)["PATIENTS_NAME"] ==pname)\r\n{\r\nWait(2)\r\nLog["Message"](studyGrid["FocusedView"]["GetDataRow"](j)["IsBlueSelected"])\r\nif(studyGrid["FocusedView"]["GetDataRow"](j)["IsBlueSelected"]==true)\r\n{\r\nstatus=true\r\nLog["Message"]("Selected study is marked with blue background")\r\n}\r\nelse\r\n{\r\nstatus=false\r\nLog["Error"]("Selected study is not marked with blue background")\r\n}\r\n}\r\n}\r\nreturn status\r\n}\r\n', 'function runNetworkLogin()\r\n{\r\nvar Tasks, Task\r\nTasks = NetworkSuite["Jobs"]["ItemByName"]("Login")["Tasks"]\r\nTask = Tasks["Items"](0)\r\nTask["Run"](true)\r\n}\r\n', 'function runNetworkLogout()\r\n{\r\nvar Tasks, Task\r\nTasks = NetworkSuite["Jobs"]["ItemByName"]("Login")["Tasks"]\r\nTask = Tasks["Items"](2)\r\nTask["Run"](true)\r\n}\r\n', 'public void Test_AddMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Add(1, 10)\r\nAssert.AreEqual(res, 5)\r\n}\r\n', 'public void Test_AddMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Add(10, 10)\r\nAssert.AreEqual(res, 2)\r\n}\r\n', 'public void Test_AddMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Add(1, 10)\r\nAssert.AreEqual(res, 5)\r\n}\r\n', 'public void Test_AddMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Add(10, 10)\r\nAssert.AreEqual(res, 2)\r\n}\r\n']</t>
@@ -61,7 +61,7 @@
     <t>['constructor(public firstName: string, public middleInitial: string, public lastName: string) {\r\nthis.fullName = firstName + " " + middleInitial + " " + lastName\r\n}\r\n', 'function greeter(person: Person) {\r\nreturn "Hello, " + person.firstName + " " + person.lastName\r\n}\r\n']</t>
   </si>
   <si>
-    <t>['var Student = /** @class */ (function () {\r\nfunction Student(firstName, middleInitial, lastName) {\r\nthis.firstName = firstName\r\nthis.middleInitial = middleInitial\r\nthis.lastName = lastName\r\nthis.fullName = firstName + " " + middleInitial + " " + lastName\r\n}\r\nreturn Student\r\n}())\r\n', 'function greeter(person) {\r\nreturn "Hello, " + person.firstName + " " + person.lastName\r\n}\r\n']</t>
+    <t>['function greeter(person) {\r\nreturn "Hello, " + person.firstName + " " + person.lastName\r\n}\r\n']</t>
   </si>
 </sst>
 </file>

--- a/test_resource/Extracted_methods.xlsx
+++ b/test_resource/Extracted_methods.xlsx
@@ -22,46 +22,46 @@
     <t>Uniq ID</t>
   </si>
   <si>
-    <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\CerberusTest.java_afterAll', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\CerberusTest.java_beforeAll', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\CerberusTest.java_getCerberusCommandLineUsageString', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\CerberusTest.java_testCallMethod', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\CerberusTest.java_testCerebrusWithArguments', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\CerberusTest.java_testCerebruswithOutArguments', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\CerberusTest.java_testCerebruswithWrongArguments', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\HelloController.java_index1', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\HelloController.java_index2', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\HelloController.java_meth', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_ARSorting', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_AutoRefreshImport', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_ChangePatientDetails', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_Choosefolder', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_DeidentifyPatientDetails', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_DeleteAllStudies', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_GetPictorialIndex', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_GetPictorialIndexSeriesNobyDescription', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_PIContextMenuCopyTo', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_PIContextMenuCopyToRighClick', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_PIToggle', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_ProgressBar', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_RightClickPISelectedSeries', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_RunScriptsinRemoteSystem', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_SelectPISeriesByMouseHover', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_SelectPictorialSeriesByIndexvalue', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_SelectPictorialSeriesBySeriesValue', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_SeriesFilesCount', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_SeriesReportCount', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_SeriesSelect', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_VerifyCSROIApplication', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_VerifyisPatientSelected', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_runNetworkLogin', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_repo.java_runNetworkLogout', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\test\\TestHelloController.java_Test_AddMethod', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\test\\TestHelloController.java_Test_AddMethod', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\tst\\TstHelloController.java_Test_AddMethod', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\tst\\TstHelloController.java_Test_AddMethod']</t>
-  </si>
-  <si>
-    <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\tst\\test.cs_Test_AddMethod', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\tst\\test.cs_Test_DivideMethod', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\tst\\test.cs_Test_MultiplyMethod', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\tst\\test.cs_Test_SubstractMethod']</t>
-  </si>
-  <si>
-    <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_c.c_main', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_c.c_swap']</t>
-  </si>
-  <si>
-    <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_cpp_code.cpp_main', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_cpp_code.cpp_relational_operation']</t>
-  </si>
-  <si>
-    <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\python_annot_file.py_create_parser', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\python_annot_file.py_validate_return', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\python_file.py_create_parser', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_generate_pylint_cmd', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_get_check_pass_fail_status', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_get_file_name', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_get_guardrails_obj', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_get_log_data', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_get_test_guardrail_gate_status', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_get_test_guardrail_gate_status_fail', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_get_validate_return', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_return_jscpd_false', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_setUp', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_stub_get_all_func_cnn', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_stub_globals', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_stub_validate_return', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_tearDown', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_call_subprocess_error', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_call_subprocess_noerror', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_check_pass_fail_success', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_check_report_dir', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_file_exists', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_file_exists_exit', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_get_all_func_cnn', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_get_index_cnn', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_coverage', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_coverage_fail', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_cyclomatic_complexity', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_deadcode', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_deadcode_fail', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_jscpd', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_jscpd_fail', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_lint', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_mutation', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_test', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_guardrail_test_fail', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_list_to_str_folders', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_mov_cov_report', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_orchestrate_guardrails', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_parse_cyclo_report_xml', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_parse_jscpd_report_json', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_parse_mutmut_report_xml', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\test_guardrails.py_test_validate_return']</t>
-  </si>
-  <si>
-    <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\typescript_sample.ts_constructor', 'C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\typescript_sample.ts_greeter']</t>
-  </si>
-  <si>
-    <t>['C:\\Users\\320074769\\Downloads\\Python_Repos\\funcSSH\\functiondefextractor\\test_resource\\test_repo\\src\\typescript_sample.js_greeter']</t>
-  </si>
-  <si>
-    <t>['public void afterAll() {\r\nsuper.restoreStreams()\r\n}\r\n', 'public void beforeAll() {\r\nsuper.setUpStreams()\r\n}\r\n', 'private String getCerberusCommandLineUsageString() {\r\nreturn new StringBuilder().append("Usage: Cerberus [COMMAND]").append(NEW_LINE).append("Waking Cerberus to devour bad things in the system").append(NEW_LINE).append("Commands:")\r\n.append(NEW_LINE).append("  CPD            Detect duplicated blocks of code in your source code").append(NEW_LINE)\r\n.append("  SWD            Detect all the warnings which are suppressed in your code").append(NEW_LINE).append("  JPMD           Java Programming Mistakes Detector")\r\n.append(NEW_LINE).append("  JCMD           Java Code Metrics Detector").append(NEW_LINE).toString()\r\n}\r\n', 'public void testCallMethod() throws Exception {\r\nassertEquals(Integer.valueOf(0), new Cerberus().call())\r\n}\r\n', 'public void testCerebrusWithArguments() {\r\ngetOriginalOutputStream().flush()\r\nCerberus.main(new String[] { "CPD" })\r\n}\r\n', 'public void testCerebruswithOutArguments() {\r\nCerberus.main(new String[] {})\r\nString expectedOutputString = getCerberusCommandLineUsageString()\r\nassertEquals(expectedOutputString, getModifiedOutputStream().toString())\r\n}\r\n', 'public void testCerebruswithWrongArguments() {\r\nString dummyArgument = "dummy argument"\r\nCerberus.main(new String[] { dummyArgument })\r\nString expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: \'dummy argument\'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString()\r\n}\r\n', 'public String index1() {\r\nreturn "Final"\r\n}\r\n', 'public String index2() throws IOException {\r\nfinal String cmd1 = "git clone " + str\r\nfinal ProcessBuilder builder1 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + cmd1)\r\nfinal Process p = builder1.start()\r\ntry {\r\np.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nString fileName = str.substring(str.lastIndexOf(\'/\') + 1)\r\nfileName = fileName.substring(0, fileName.length() - 4)\r\n\r\nfinal String cmd2 = "jscpd --min-" + str1 + " " + str2\r\n+ " --reporters html --output C:\\\\test --mode strict C:\\\\test\\\\" + fileName\r\n\r\nfinal ProcessBuilder builder2 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + cmd2)\r\nfinal Process p1 = builder2.start()\r\ntry {\r\np1.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nfinal String command3 = "RD /S /Q  C:\\\\test\\\\" + fileName\r\nfinal ProcessBuilder builder3 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + command3)\r\nfinal Process p3 = builder3.start()\r\ntry {\r\np3.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nfinal long seconds = System.currentTimeMillis()\r\nfinal String rname = seconds + "-" + fileName + "-jscpd-report.html"\r\n\r\nfinal String command4 = "ren " + "jscpd-report.html " + rname\r\nfinal ProcessBuilder builder5 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + command4)\r\nfinal Process p4 = builder5.start()\r\ntry {\r\np4.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nfinal String cmd3 = "start " + rname\r\nfinal ProcessBuilder builder4 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + cmd3)\r\nfinal Process p2 = builder4.start()\r\ntry {\r\np2.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nfinal String excelFilePath = "C:\\\\test\\\\Data_log.xlsx"\r\nfinal FileInputStream inputStream = new FileInputStream(new File(excelFilePath))\r\nfinal Workbook workbook = WorkbookFactory.create(inputStream)\r\n\r\nfinal Sheet sheet = workbook.getSheetAt(0)\r\n\r\nfinal int rowCount = sheet.getLastRowNum()\r\nfinal Row row = sheet.getRow(rowCount)\r\nfinal int columnCount = 1\r\n\r\nfinal Cell cell = row.createCell(columnCount)\r\ncell.setCellValue("C:\\\\test\\\\" + rname)\r\n\r\ninputStream.close()\r\n\r\nfinal FileOutputStream outputStream = new FileOutputStream("C:\\\\test\\\\Data_log.xlsx")\r\nworkbook.write(outputStream)\r\nworkbook.close()\r\noutputStream.close()\r\n\r\nSystem.out.println("Got your Report")\r\n\r\nreturn "Final"\r\n\r\n}\r\n', 'public String meth(@RequestParam("Source_URL") final String name, @RequestParam("tok_lin") final String name1,\r\n@RequestParam("count") final String name2) throws IOException {\r\n\r\nstr = name\r\nstr1 = name1\r\nstr2 = name2\r\nfinal String rname = "Output.py"\r\nfinal String command5 = "ren " + str + " " + rname\r\nfinal ProcessBuilder builder6 = new ProcessBuilder("cmd.exe", "/c",\r\n"cd \\"C:\\\\Users\\\\320074769\\\\Downloads\\" &amp;&amp; " + command5)\r\nfinal Process p5 = builder6.start()\r\ntry {\r\np5.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\n\r\nfinal String command4 = "python " + rname\r\nfinal ProcessBuilder builder5 = new ProcessBuilder("cmd.exe", "/c",\r\n"cd \\"C:\\\\Users\\\\320074769\\\\Downloads\\" &amp;&amp; " + command4)\r\n\r\nfinal Process p4 = builder5.start()\r\ntry {\r\np4.waitFor()\r\n} catch (final InterruptedException e) {\r\ne.printStackTrace()\r\n}\r\nreturn "\\"Got your report :)\\""\r\n\r\n}\r\n', 'function ARSorting(columnName,sortingOrder,study)\r\n{\r\nvar commonGrid= Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]\r\nvar prop = new Array( "ClrClassName","Name","Visible" )\r\nvar Val = new Array("BoundColumnSelectedGrid","[\\"WinFormsObject\\"](\\"grid\\")",true )\r\n\r\nif(study)\r\n{\r\nvar grid=commonGrid["SplitterPanel"]["FindChild"](prop,Val, 100)\r\n}\r\nelse\r\n{\r\nvar grid=commonGrid["SplitterPanel_1"]["FindChild"](prop,Val, 100)\r\n}\r\nif(grid["Exists"])\r\n{\r\nvar columnCount=grid["DefaultView"]["Columns"]["Count"]\r\nfor(var i=0\r\n{\r\nvar colName=grid["DefaultView"]["Columns"]["Item_2"](i)["Caption"]["OleValue"]\r\nif(VarToStr(colName)==VarToStr(columnName))\r\n{\r\ngrid["DefaultView"]["Columns"]["Item_2"](i)["set_SortOrder"](sortingOrder)\r\nbreak\r\n}\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("grid does not exists")\r\n}\r\nWait(2)\r\n}\r\n', 'function AutoRefreshImport(path,folderName,MRstudy_vendor)\r\n{\r\n\r\nvar gridcount \r\nvar pdcount \r\nvar flag =0\r\nvar status1 = false\r\nvar status2 = false\r\n\r\nvar pdProc = Sys["Process"]("PatientDirectory")\r\nproperties = new Array( "ClrClassName","Name", "Visible" )\r\nvalues = new Array("PmsButtonMatrixCombo","[\\"WinFormsObject\\"](\\"matrixCombo\\")",true )\r\nvar folderSpace= pdProc["FindChild"](properties, values, 100)\r\nif(folderSpace["Exists"])\r\n{\r\nfolderSpace["ClickR"]()\r\nContextMenu("Import Data")\r\nvar importDialog= pdProc["WinFormsObject"]("PmsImportDialog")\r\nif(importDialog["Exists"])\r\n{\r\nvar sourcePath=importDialog["WinFormsObject"]("panel2")["WinFormsObject"]("pathHistoryCombo")\r\nsourcePath["SetText"](path)\r\nsourcePath["Keys"]("[Enter]")\r\n\r\nvar propVal = new Array( "ClrClassName","Visible" )\r\nvar varVal = new Array("FileSystemListView",true )\r\nvar sourceFolder= pdProc["FindChild"](propVal, varVal, 100)\r\nsourceFolder["ClickItem"](folderName)\r\nvar okButton= importDialog["WinFormsObject"]("panel3")["WinFormsObject"]("panel1")["WinFormsObject"]("btnOK")\r\nokButton["Click"]()\r\nLog["Message"]("Clicking on ok button")\r\nWait(1)\r\n\r\nvar prop = new Array( "ClrClassName","Visible" )\r\nvar Val = new Array("PmsProgressBar",true )\r\nvar progressBar= pdProc["FindChild"](prop,Val, 100)\r\nif(progressBar["Exists"])\r\n{\r\nwhile(progressBar["Exists"])\r\n{\r\nif(progressBar["Value"] &gt; 25 &amp;&amp; progressBar["Value"] &lt; 30 &amp;&amp; flag == 0)\r\n{\r\ngridcount = StudyCount()\r\npdcount = CopyDeleteLibrary["GetStudyCounts"]("Display")\r\n\r\nif(gridcount == pdcount)\r\n{\r\nLog["Message"](" Study counts are equal")\r\nstatus1 = true\r\n}\r\nelse\r\nLog["Warning"]("Study counts are not equal")\r\n\r\nflag = 1\r\n}\r\n\r\nif(progressBar["Value"] &gt; 50 &amp;&amp; progressBar["Value"] &lt; 55 &amp;&amp; flag == 1)\r\n{\r\nSelectPatient(MRstudy_vendor)\r\nif(flag == 1)\r\n{\r\nstatus2 = VerifyisPatientSelected(MRstudy_vendor)\r\nif(status2)\r\n{\r\nLog["Message"](MRstudy_vendor+" study is marked with blue background")\r\n}\r\nelse\r\n{\r\nLog["Warning"](MRstudy_vendor+"study is not marked with blue background")\r\nstatus1 = false\r\n}\r\nflag = 2\r\n}\r\n}\r\n\r\nif(progressBar["Value"] &gt; 70 &amp;&amp; progressBar["Value"] &lt; 75 &amp;&amp; flag == 2)\r\n{\r\nARSorting("Patient Name","Ascending",true)\r\nSelectPatient(MRstudy_vendor)\r\nstatus2 = VerifyisPatientSelected(MRstudy_vendor)\r\nif(status2)\r\n{\r\nLog["Message"](MRstudy_vendor+" study is marked with blue background after sorting in ascending order")\r\n}\r\nelse\r\n{\r\nLog["Warning"](MRstudy_vendor+"study is not marked with blue background after sorting in ascending order")\r\nstatus1 = false\r\n}\r\nflag = 3\r\n}\r\n\r\nif(progressBar["Value"] &gt; 90 &amp;&amp; progressBar["Value"] &lt; 95 &amp;&amp; flag == 3)\r\n{\r\nARSorting("Patient Name","Descending",true)\r\nSelectPatient(MRstudy_vendor)\r\nstatus2 = VerifyisPatientSelected(MRstudy_vendor)\r\nif(status2)\r\n{\r\nLog["Message"](MRstudy_vendor+" study is marked with blue background after sorting in descending order")\r\n}\r\nelse\r\n{\r\nLog["Warning"](MRstudy_vendor+"study is not marked with blue background after sorting in descending order")\r\nstatus1 = false\r\n}\r\nflag = 4\r\n}\r\nWait(1)\r\n}\r\nreturn status1\r\n}\r\nelse\r\n{\r\nproperties = new Array( "ClrClassName", "Visible" )\r\nvalues = new Array("PmsStatusInformationCombo",true )\r\nvar messageForm= pdProc["FindChild"](properties, values, 100)\r\nvar messageCount=messageForm["Items"]["Count"]-1\r\nvar message=messageForm["Items"]["Item"](messageCount)["Message"]["OleValue"]\r\nif(message=="Import Ended")\r\n{\r\nLog["Message"]("Import successful")\r\nreturn true\r\n}\r\nelse\r\n{\r\nLog["Error"]("Progress bar not found")\r\nreturn false\r\n}\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("ImportDialog doesn\'t exist")\r\nreturn false\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("Folder space doesn\'t exists")\r\nreturn false\r\n}\r\n}\r\n', 'function ChangePatientDetails(fName,lName,DefaultDevice)\r\n{\r\nvar CPD=Aliases["PatientDirectory"]["CPD"]\r\nCPD["WaitProperty"]("Exists", true, 30000)\r\nAliases["PatientDirectory"]["PmsMessageBox"]["OK"]["Click"]()\r\nWait(1)\r\nif(fName!="")\r\n{\r\nCPD["firstName"]["SetText"](fName)\r\n}\r\nif(lName!="")\r\n{\r\nCPD["lastName"]["SetText"](lName)\r\n}\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("CreateNewStudyForm")["WinFormsObject"]("raisedPanel")["WinFormsObject"]("chooseDevicesButton")["ClickButton"]()\r\n\r\nChoosefolder("Local",DefaultDevice)\r\nCPD["save"]["ClickButton"]()\r\nWait(1)\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("Yes")["Click"]()\r\nProgressBar()\r\n}\r\n', 'function Choosefolder(folderType,folderName)\r\n{\r\nWait(2)\r\nvar copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"]\r\nif(copyDialogBox["resetButton"]["Enabled"])\r\n{\r\ncopyDialogBox["resetButton"]["ClickButton"]()\r\n}\r\nif(copyDialogBox["Exists"])\r\n{\r\nif(VarToStr(folderType)=="Local")\r\n{\r\nvar folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](0)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Local Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nelse if(VarToStr(folderType)=="Remote")\r\n{\r\nfolderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](1)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Remote Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nvar copied=false\r\nfor(var i=0\r\n{\r\nvar folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"])\r\nif(folder==folderName)\r\n{\r\nif(matrix["Buttons"]["Item"](i)["Enabled"])\r\n{\r\ncopied=true\r\nvar X=matrix["Buttons"]["Item"](i)["location_2"]["X"]\r\nvar Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"]\r\nWait(1)\r\nlocation["Click"](X+10,Y+10)\r\nWait(2)\r\ncopyDialogBox["okButton"]["Click"]()\r\nbreak\r\n}\r\nelse\r\n{\r\nLog["Error"]("Folder "+folderName+" is not enabled ")\r\nAddCheckpointResultToReport(false,"","Folder "+folderName+" is not enabled ")\r\nbreak\r\n}\r\n}\r\n}\r\nif(!copied)\r\n{\r\nAliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]()\r\nWait(1)\r\nAddCheckpointResultToReport(false,"","Required folder not found"+folderName)\r\nLog["Error"]("Required folder not found"+folderName)\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("copyDialogbox doesnot exist")\r\nAddCheckpointResultToReport(false,"","copyDialogbox doesnot exist")\r\nreturn false\r\n}\r\nWait(2)\r\nreturn copied\r\n}\r\n', 'function DeidentifyPatientDetails(lName,DefaultDevice)\r\n{\r\nvar dpd = Sys["Process"]("PatientDirectory")["WinFormsObject"]("AnonymiseForm")\r\ndpd["WaitProperty"]("Exists", true, 30000)\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("OK")["ClickButton"]()\r\nvar arrys = new Array("ClrClassName","Name", "Visible")\r\nvar values = new Array("PmsToolPanel","[\\"WinFormsObject\\"](\\"raisedPanel\\")",true )\r\nvar panel = dpd["FindChild"](arrys,values,100)["WinFormsObject"]("patientDetailsPanel")\r\n\r\nif(lName!="" )\r\n{\r\npanel["WinFormsObject"]("lastNameTextBox")["SetText"](lName)\r\n}\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("AnonymiseForm")["WinFormsObject"]("raisedPanel")["WinFormsObject"]("chooseDevicesButton")["ClickButton"]()\r\n\r\nChoosefolder("Local",DefaultDevice)\r\ndpd["WinFormsObject"]("saveButton")["ClickButton"]()\r\nSys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("Yes")["Click"]()\r\nProgressBar()\r\n}\r\n', 'function DeleteAllStudies()\r\n{\r\nvar studygrid = StudyGrid()\r\n\r\nstudygrid["Views"]["Item"](0)["SelectAll"]()\r\nSyncWithStopButton()\r\nAliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolsPanel"]["leftPanel"]["toolbox"]["panel"]["deleteButton"]["Click"]()\r\nWait(1)\r\nAliases["PatientDirectory"]["PmsMessageBox"]["Yes"]["Click"]()\r\nSyncWithStopButton()\r\nWait(5)\r\n}\r\n', 'function GetPictorialIndex()\r\n{\r\nvar panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]\r\nvar propValues = new Array( "ClrClassName", "Visible" )\r\nvar varValues = Array( "PictorialLayoutControl", true )\r\nvar pictorialLayout = panelMain["FindChild"](propValues, varValues, 30)\r\nreturn pictorialLayout\r\n}\r\n', 'function GetPictorialIndexSeriesNobyDescription(description)\r\n{\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar indexstatus = false\r\nvar picounts = pictorialLayout["Controls"]["Count"]\r\n\r\nfor(var i=0\r\n{\r\nif(description == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_DESCRIPTION"])\r\n{\r\nLog["Message"](i)\r\nindexstatus = true\r\nvar seriesno = pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"]\r\nreturn seriesno\r\nbreak\r\n}\r\n}\r\n\r\nif(!indexstatus)\r\n{\r\nLog["Checkpoint"]("Series not found")\r\n}\r\n}\r\n', 'function PIContextMenuCopyTo(folderType,folderName)\r\n{\r\n\r\nvar panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]\r\nvar propValues = new Array( "ClrClassName", "Visible" )\r\nvar varValues = Array( "PictorialLayoutControl", true )\r\nvar pictorialLayout = panelMain["FindChild"](propValues, varValues, 30)\r\n\r\npictorialLayout["ClickR"](50,50)\r\nContextMenu("Copy To")\r\nvar copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"]\r\nif(copyDialogBox["resetButton"]["Enabled"])\r\n{\r\ncopyDialogBox["resetButton"]["ClickButton"]()\r\n}\r\nif(copyDialogBox["Exists"])\r\n{\r\nif(VarToStr(folderType)=="Local")\r\n{\r\nvar folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](0)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Local Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nelse if(VarToStr(folderType)=="Remote")\r\n{\r\nfolderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](1)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Remote Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nvar copied=false\r\nfor(var i=0\r\n{\r\nvar folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"])\r\nif(folder==folderName)\r\n{\r\ncopied=true\r\nvar X=matrix["Buttons"]["Item"](i)["location_2"]["X"]\r\nvar Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"]\r\nWait(1)\r\nlocation["Click"](X+10,Y+10)\r\nWait(2)\r\ncopyDialogBox["okButton"]["Click"]()\r\nbreak\r\n}\r\n}\r\nif(!copied)\r\n{\r\nAliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]()\r\nWait(1)\r\nLog["Error"]("Required folder not found"+folderName)\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("copyDialogbox doesnot exist")\r\n}\r\nWait(2)\r\n}\r\n', 'function PIContextMenuCopyToRighClick(folderType,folderName)\r\n{\r\n\r\nvar panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]\r\nvar propValues = new Array( "ClrClassName", "Visible" )\r\nvar varValues = Array( "PictorialLayoutControl", true )\r\nvar pictorialLayout = panelMain["FindChild"](propValues, varValues, 30)\r\n\r\nContextMenu("Copy To")\r\nvar copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"]\r\nif(copyDialogBox["resetButton"]["Enabled"])\r\n{\r\ncopyDialogBox["resetButton"]["ClickButton"]()\r\n}\r\nif(copyDialogBox["Exists"])\r\n{\r\nif(VarToStr(folderType)=="Local")\r\n{\r\nvar folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](0)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Local Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nelse if(VarToStr(folderType)=="Remote")\r\n{\r\nfolderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"]\r\nvar matrix=copyDialogBox["Matrices"]["Item"](1)\r\nvar prop=new Array("WndCaption","Visible")\r\nvar val=new Array("Remote Devices",true)\r\nvar location=copyDialogBox["FindChild"](prop,val,100)\r\n}\r\nvar copied=false\r\nfor(var i=0\r\n{\r\nvar folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"])\r\nif(folder==folderName)\r\n{\r\ncopied=true\r\nvar X=matrix["Buttons"]["Item"](i)["location_2"]["X"]\r\nvar Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"]\r\nWait(1)\r\nlocation["Click"](X+10,Y+10)\r\nWait(2)\r\ncopyDialogBox["okButton"]["Click"]()\r\nbreak\r\n}\r\n}\r\nif(!copied)\r\n{\r\nAliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]()\r\nWait(1)\r\nLog["Error"]("Required folder not found"+folderName)\r\n}\r\n}\r\nelse\r\n{\r\nLog["Error"]("copyDialogbox doesnot exist")\r\n}\r\nWait(2)\r\n}\r\n', 'function PIToggle()\r\n{\r\nAliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]["tabControl"]["seriesPage"]["toggleButton"]["Click"]()\r\nWait(5)\r\nvar PI=Aliases["PatientDirectory"]["PatientDirectoryForm"]["FindChild"]("ClrClassName","PictorialIndexPanel",100)\r\nif(PI["VisibleOnScreen"])\r\n{\r\nLog["Checkpoint"]("Series Thumbnail view is displayed on toggling")\r\nstatus2=true\r\n}\r\nelse\r\n{\r\nLog["Error"]("Series Thumbnail view is not displayed on toggling")\r\nstatus2=false\r\n}\r\nreturn status2\r\n}\r\n', 'function ProgressBar()\r\n{\r\nvar pdProc = Sys["Process"]("PatientDirectory")\r\nvar prop = new Array( "ClrClassName","Visible" )\r\nvar Val = new Array("PmsProgressBar",true )\r\nvar progressBar= pdProc["FindChild"](prop,Val, 100)\r\nif(progressBar["Exists"])\r\n{\r\nvar citimeOut = 0\r\nwhile(progressBar["Exists"])\r\n{\r\nDelay(1000, "waiting for progess bar to complete")\r\ncitimeOut++\r\nif(citimeOut &gt; 300)\r\nbreak\r\n}\r\nLog["Message"]("Change Patient Details successful")\r\nreturn true\r\n}\r\nelse\r\n{\r\nproperties = new Array( "ClrClassName", "Visible" )\r\nvalues = new Array("PmsStatusInformationCombo",true )\r\nvar messageForm= pdProc["FindChild"](properties, values, 100)\r\nvar messageCount=messageForm["Items"]["Count"]-1\r\nvar message=messageForm["Items"]["Item"](messageCount)["Message"]["OleValue"]\r\nif(message=="Change Patient Details successfully completed.  1 entries were saved. Some instances were ignored.  " ||\r\nmessage=="Change Patient Details operation started")\r\n{\r\nLog["Message"]("Change Patient Details successful")\r\nreturn true\r\n}\r\nelse\r\n{\r\nLog["Error"]("Progress bar not found")\r\nreturn false\r\n}\r\n}\r\n}\r\n', 'function RightClickPISelectedSeries()\r\n{\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar seriesbefore =  pictorialLayout["Controls"]["Count"]\r\nfor(var i=0\r\n{\r\nif(pictorialLayout["Controls"]["Item"](i)["Card"]["Selected"])\r\n{\r\nindexstatus = true\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\r\nx =pictorialLayout["Controls"]["Item_2"](i)["Location"]["X"]\r\ny = pictorialLayout["Controls"]["Item_2"](i)["Location"]["Y"]\r\nwidth = pictorialLayout["Controls"]["Item_2"](i)["Width"]\r\nheight =  pictorialLayout["Controls"]["Item_2"](i)["Height"]\r\n\r\npictorialLayout["HoverMouse"](x + (width/2) , y + (height/2))\r\npictorialLayout["ClickR"](x + (width/2) , y + (height/2))\r\npictorialLayout["Keys"]("[Esc]")\r\n}\r\n}\r\n}\r\n', 'function RunScriptsinRemoteSystem(RemoteIP,AdminUsername,AdminPassword,BasePath,ProjectSuitePath,HostName)\r\n{\r\nvar Host = NetworkSuite["Hosts"]["ItemByName"](HostName)\r\nHost["Address"] = RemoteIP\r\nHost["BasePath"] = BasePath\r\nHost["ProjectSourcePath"] = ProjectSuitePath\r\nHost["UserName"] = AdminUsername\r\nHost["Password"] = AdminPassword\r\nHost["CopyProjectToSlave"]()\r\n\r\nif (Host["Verify"]() == false)\r\n{\r\ni = MessageDlg(Host["Address"] + " machine not able to find in the network, Execution terminated", mtError, i, 0)\r\nreturn\r\n}\r\nelse\r\n{\r\nreturn true\r\n}\r\n}\r\n', 'function SelectPISeriesByMouseHover(series)\r\n{\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar seriesbefore =  pictorialLayout["Controls"]["Count"]\r\nSelectPictorialSeriesBySeriesValue(series)\r\nvar x\r\nvar y\r\nvar width\r\nvar height\r\npictorialLayout["VerticalScroll"]["EnableScroll"](true)\r\nfor(var i=0\r\n{\r\nif(series == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"])\r\n{\r\nindexstatus = true\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\r\nx =pictorialLayout["Controls"]["Item_2"](i)["Location"]["X"]\r\ny = pictorialLayout["Controls"]["Item_2"](i)["Location"]["Y"]\r\nwidth = pictorialLayout["Controls"]["Item_2"](i)["Width"]\r\nheight =  pictorialLayout["Controls"]["Item_2"](i)["Height"]\r\n\r\npictorialLayout["HoverMouse"](x + (width/2) , y + (height/2))\r\npictorialLayout["ClickR"](x + (width/2) , y + (height/2))\r\nDelay(5000)\r\nbreak\r\n}\r\n}\r\n}\r\n', 'function SelectPictorialSeriesByIndexvalue(series,description)\r\n{\r\nvar indexstatus = false\r\n\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar picounts = pictorialLayout["Controls"]["Count"]\r\nfor(var i=0\r\n{\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](false)\r\n}\r\nfor(var i=0\r\n{\r\nif(description == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_DESCRIPTION"])\r\n{\r\nLog["Message"](i)\r\nindexstatus = true\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\r\nreturn i\r\nbreak\r\n}\r\n}\r\n\r\nif(!indexstatus)\r\n{\r\nLog["Checkpoint"]("Series not found")\r\n}\r\n}\r\n', 'function SelectPictorialSeriesBySeriesValue(series)\r\n{\r\n\r\nseriesno=series["split"](",")\r\nvar indexstatus = false\r\nvar v = -1\r\nvar pictorialLayout = GetPictorialIndex()\r\nvar picounts = pictorialLayout["Controls"]["Count"]\r\nfor(var i=0\r\n{\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](false)\r\n}\r\nfor(var testj=0\r\n{\r\nindexstatus = false\r\nfor(var i=0\r\n{\r\nif(seriesno[testj] == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"])\r\n{\r\nLog["Message"](i)\r\nindexstatus = true\r\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\r\nv = i\r\n}\r\n}\r\n}\r\n\r\nif(!indexstatus)\r\n{\r\nLog["Checkpoint"]("Series not found")\r\n}\r\nreturn v\r\n}\r\n', 'function SeriesFilesCount()\r\n{\r\nvar seriesPanel=Sys["Process"]("PatientDirectory")["FindChild"]("ClrClassName","filePanel",100)\r\nvar grid=seriesPanel["FindChild"]("ClrClassName","BoundColumnSelectedGrid",100)\r\nvar seriesCount=grid["Views"]["Item"](0)["DataRowCount"]\r\nreturn seriesCount\r\n}\r\n', 'function SeriesReportCount()\r\n{\r\nvar seriesPanel=Sys["Process"]("PatientDirectory")["FindChild"]("ClrClassName","ReportPanel",100)\r\nvar grid=seriesPanel["FindChild"]("ClrClassName","BoundColumnSelectedGrid",100)\r\nvar seriesCount=grid["Views"]["Item"](0)["DataRowCount"]\r\nreturn seriesCount\r\n}\r\n', 'function SeriesSelect(index)\r\n{\r\nvar properties\r\nvar values\r\n\r\nproperties = new Array("Name","Visible")\r\nvalues = new Array("[\\"WinFormsObject\\"](\\"tabControl\\"))","True")\r\n\r\nvar SeriesTab = Sys["Process"]("PatientDirectory")["WinFormsObject"]("PatientDirectoryForm")["WinFormsObject"]("mainContainerPanel")["WinFormsObject"]("rightPanel")["WinFormsObject"]("SplitContainer", "", 1)["WinFormsObject"]("SplitterPanel", "", 2)["FindChild"](properties, values, 100)\r\n\r\nfor(var i=0\r\n{\r\nif(i==1)\r\ncontinue\r\n\r\ndelay(1000)\r\nSeriesTab["ClickTab"](SeriesTab["wTabCaption"](i))\r\nLog["Message"]("Select tab is"+SeriesTab["SelectedIndex"]+ " "+SeriesTab["CanFocus"])\r\n\r\nif(i ==  index)\r\nbreak\r\n}\r\n}\r\n', 'function VerifyCSROIApplication()\r\n{\r\nvar calciumScoring\r\nvar CSMainScene\r\nvar pmsToolPanel\r\nvar tableLayoutPanel\r\nvar pmsComboBox\r\nvar fieldname = new Array()\r\nvar fieldvalue = new Array()\r\nvar afterfieldname = new Array()\r\nvar afterfieldvalue = new Array()\r\nvar check =  true\r\nvar ispib = aqConvert["VarToBool"](ReadLoginSheet("pibMachine"))\r\nvar process = "PortalAppletHost"\r\nif(ispib)\r\nprocess = "PortalAppletHost64"\r\n\r\ncalciumScoring = Sys["Process"](process)\r\nWait(3)\r\n\r\nproperties = new Array("ClrClassName","Name", "Visible")\r\nvalues = new Array("GridControl","[\\"WinFormsObject\\"](\\"gridControl1\\")", true)\r\nimagegrid  = calciumScoring["FindChild"](properties, values, 100)\r\ngridcolcount = imagegrid["DataSource"]["Columns"]["Count"]\r\nfor(var i = 0\r\n{\r\nif(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="Total Coronaries")\r\n{\r\ntemp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"]\r\nfor(var j = 0\r\n{\r\nfieldvalue[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]\r\n}\r\n}\r\n\r\nif(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="RowName")\r\n{\r\ntemp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"]\r\nfor(var j = 0\r\n{\r\nfieldname[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]\r\n}\r\n}\r\n}\r\nWait(3)\r\n\r\nproperties = new Array("Name", "Visible")\r\nvalues = new Array("[\\"WinFormsObject\\"](\\"manualSeed\\")", true)\r\n\r\nmanualseed = calciumScoring["FindChild"](properties,values, 100)["WinFormsObject"]("comboButton")\r\nmanualseed["Click"]()\r\n\r\nproperties = new Array("ClrClassName", "Visible")\r\nvalues = new Array("ImageViewer", "True")\r\n\r\nimageViewer = calciumScoring["FindChild"](properties, values, 100)\r\nimageViewer["Click"](575, 216)\r\nimageViewer["Click"](600, 216)\r\nWait(3)\r\n\r\nfor(var i = 0\r\n{\r\nif(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="Total Coronaries")\r\n{\r\ntemp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"]\r\nfor(var j = 0\r\n{\r\nafterfieldvalue[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]\r\n}\r\n}\r\n}\r\n\r\nfor(var i=0\r\n{\r\nif(fieldvalue[i]!=afterfieldvalue[i])\r\n{\r\nLog["Checkpoint"](fieldname[i]+ " Before ROI value is "+fieldvalue[i]+" After ROI value is "+afterfieldvalue[i])\r\ncheck =  true\r\n}\r\nelse\r\n{\r\nLog["Error"](fieldname[i]+ " Before ROI value is "+fieldvalue[i]+" After ROI value is "+afterfieldvalue[i])\r\ncheck =  false\r\nbreak\r\n}\r\n}\r\n\r\nfor (var i = 0\r\n{\r\nroi = imageViewer["ImagePresentationState"]["ImageRelativeAnnotators"]["Item"](i)["ClrClassName"]\r\nif (roi == "CsMFHCAnnotator")\r\n{\r\nLog["Checkpoint"]("ROI is available on ImageViewer")\r\ncheck =  true\r\nbreak\r\n}\r\n}\r\nreturn check\r\n}\r\n', 'function VerifyisPatientSelected(pname)\r\n{\r\n\r\nvar studyGrid = StudyGrid()\r\n\r\nvar rowCount= studyGrid["DataSource"]["Table"]["Rows"]["Count"]\r\nfor(var j=0\r\n{\r\nWait(1)\r\nif(studyGrid["FocusedView"]["GetDataRow"](j)["PATIENTS_NAME"] ==pname)\r\n{\r\nWait(2)\r\nLog["Message"](studyGrid["FocusedView"]["GetDataRow"](j)["IsBlueSelected"])\r\nif(studyGrid["FocusedView"]["GetDataRow"](j)["IsBlueSelected"]==true)\r\n{\r\nstatus=true\r\nLog["Message"]("Selected study is marked with blue background")\r\n}\r\nelse\r\n{\r\nstatus=false\r\nLog["Error"]("Selected study is not marked with blue background")\r\n}\r\n}\r\n}\r\nreturn status\r\n}\r\n', 'function runNetworkLogin()\r\n{\r\nvar Tasks, Task\r\nTasks = NetworkSuite["Jobs"]["ItemByName"]("Login")["Tasks"]\r\nTask = Tasks["Items"](0)\r\nTask["Run"](true)\r\n}\r\n', 'function runNetworkLogout()\r\n{\r\nvar Tasks, Task\r\nTasks = NetworkSuite["Jobs"]["ItemByName"]("Login")["Tasks"]\r\nTask = Tasks["Items"](2)\r\nTask["Run"](true)\r\n}\r\n', 'public void Test_AddMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Add(1, 10)\r\nAssert.AreEqual(res, 5)\r\n}\r\n', 'public void Test_AddMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Add(10, 10)\r\nAssert.AreEqual(res, 2)\r\n}\r\n', 'public void Test_AddMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Add(1, 10)\r\nAssert.AreEqual(res, 5)\r\n}\r\n', 'public void Test_AddMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Add(10, 10)\r\nAssert.AreEqual(res, 2)\r\n}\r\n']</t>
-  </si>
-  <si>
-    <t>['public void Test_AddMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Add(10, 10)\r\nAssert.AreEqual(res, 20)\r\n}\r\n', 'public void Test_DivideMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.divide(10, 5)\r\nAssert.AreEqual(res, 2)\r\n}\r\n', 'public void Test_MultiplyMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Multiply(10, 10)\r\nAssert.AreEqual(res, 100)\r\n}\r\n', 'public void Test_SubstractMethod() {\r\nBasicMaths bm = new BasicMaths()\r\ndouble res = bm.Substract(10, 10)\r\nAssert.AreEqual(res, 0)\r\n}\r\n']</t>
-  </si>
-  <si>
-    <t>['int main()\r\n{\r\nint m = 22, n = 44\r\nprintf("values before swap m = %d \\n and n = %d",m,n)\r\nswap(&amp;m, &amp;n)\r\n}\r\n', 'void swap(int *a, int *b)\r\n{\r\nint tmp\r\ntmp = *a\r\nprintf("\\n values after swap a = %d \\nand b = %d", *a, *b)\r\n}\r\n']</t>
-  </si>
-  <si>
-    <t>['int main()\r\n{\r\nstring s1("Geeks")\r\nstring s2("forGeeks")\r\nrelational_operation(s1, s2)\r\n\r\nreturn 0\r\n}\r\n', 'void relational_operation(string s1, string s2)\r\n{\r\nstring s3 = s1 + s2\r\n\r\nif(s1 != s2)\r\ncout &lt;&lt; s1 &lt;&lt; " is not equal to " &lt;&lt; s2 &lt;&lt; endl\r\n\r\nif(s1 &gt; s2)\r\ncout &lt;&lt; s1 &lt;&lt; " is greater than " &lt;&lt; s2 &lt;&lt; endl\r\n\r\nelse if(s1 &lt; s2)\r\ncout &lt;&lt; s1 &lt;&lt; " is smaller than " &lt;&lt; s2 &lt;&lt; endl\r\n\r\nif(s3 == s1 + s2)\r\ncout &lt;&lt; s3 &lt;&lt; " is equal to " &lt;&lt; s1 + s2 &lt;&lt; endl\r\n\r\n}\r\n']</t>
-  </si>
-  <si>
-    <t>['def create_parser(args):\r\n""" Function which add the command line arguments required for the commandline input\r\nof guardrails"""\r\nfunc_parser = argparse.ArgumentParser(description=\'Guardrails for python programs\')\r\nfunc_parser.add_argument(\'--path\',\r\nmetavar=\'--p\',\r\ntype=str,\r\nhelp=\'the Input file path for guardrail.ini\')\r\nreturn func_parser.parse_args(args)\r\n', 'def validate_return(val, message, guardrail):\r\n"""\r\nFunction to validate the returns from subprocess\r\nParameters:\r\nval (int): return value from subprocess\r\nmessage (string): message to be printed.\r\nguardrail (bool): identifier whether a process or guardrail gate.\r\nReturns:\r\nsub-process return value.\r\n"""\r\nprocess = "" if guardrail else "task"\r\nif val:\r\nmsg = "Guardrail {}, failed {}.".format(process, message)\r\nLOG.info(msg)  # pragma: no mutate\r\nsys.exit(val)\r\nelse:\r\nmsg = "Guardrail {}, passed {}.".format(process, message)\r\nLOG.info(msg)  # pragma: no mutate\r\nreturn\r\n', 'def create_parser(args):\r\n""" Function which add the command line arguments required for the commandline input\r\nof guardrails"""\r\nfunc_parser = argparse.ArgumentParser(description=\'Guardrails for python programs\')\r\nfunc_parser.add_argument(\'--path\',\r\nmetavar=\'--p\',\r\ntype=str,\r\nhelp=\'the Input file path for guardrail.ini\')\r\nreturn func_parser.parse_args(args)\r\n', 'def generate_pylint_cmd(self):  # pylint: disable=R0201\r\n"""Function stubbed to return generate_pylint_cmd method return value"""\r\nreturn "xyz"\r\n', 'def get_check_pass_fail_status(self, val_1, val_2, val_3):\r\n"""Function to refactor test check_pass_fail method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nwith patch(\'sys.exit\') as exit_mock:\r\nguardails_obj.check_pass_fail(val_1, val_2, val_3)\r\nif int(val_1) + int(val_2) + int(val_3) == 120:\r\nassert not exit_mock.called\r\nelse:\r\nassert exit_mock.called\r\nreturn self.get_log_data(1)\r\n', 'def get_file_name(folder_name, file_name):\r\n"""Function to test file_name method"""\r\nimport os\r\nini_path = os.path.abspath(os.path.join\r\n(os.path.dirname(__file__), os.pardir))\r\nreturn os.path.join(ini_path, folder_name, file_name)\r\n', 'def get_guardrails_obj():\r\n"""Function to create guardrails class object"""\r\nimport os\r\nini_path = os.path.abspath(os.path.join\r\n(os.path.dirname(__file__), os.pardir))\r\nini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")\r\nreturn Guardails(ini_path)\r\n', 'def get_log_data(self, line):\r\n""" function to get the line requested from log data"""\r\nfile_name = self.get_file_name("guardrails", "guardrails.log")\r\nfile_variable = open(file_name)\r\nall_lines_variable = file_variable.readlines()\r\nstring = all_lines_variable[-line]\r\nstring = string[0: 0:] + string[23 + 1::]\r\nreturn string\r\n', 'def get_test_guardrail_gate_status(self, mock_subproc_call, gate):\r\n"""Function to test guardrail_test method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nmock_subproc_call.return_value = False\r\nif gate == "guardrail_jscpd":\r\nguardails_obj.parse_jscpd_report_json = self.return_jscpd_false\r\nguardails_obj.guardrail_jscpd()\r\nif gate == "guardrail_test":\r\nguardails_obj.guardrail_test()\r\nif gate == "guardrail_coverage":\r\nguardails_obj.guardrail_coverage()\r\nreturn self.get_log_data(1), self.get_log_data(3)\r\nif gate == "guardrail_deadcode":\r\nguardails_obj.guardrail_deadcode()\r\nself.assertTrue(mock_subproc_call.called)\r\nreturn self.get_log_data(1), self.get_log_data(2)\r\n', 'def get_test_guardrail_gate_status_fail(self, mock_subproc_call, gate):\r\n"""Function to refactor test guardrail_gating_fail method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nmock_subproc_call.return_value = True\r\nwith patch(\'sys.exit\') as exit_mock:\r\nif gate == "guardrail_jscpd":\r\nguardails_obj.parse_jscpd_report_json = self.return_jscpd_false\r\nguardails_obj.guardrail_jscpd()\r\nif gate == "guardrail_test":\r\nguardails_obj.guardrail_test()\r\nif gate == "guardrail_coverage":\r\nguardails_obj.guardrail_coverage()\r\nreturn self.get_log_data(1), self.get_log_data(3)\r\nif gate == "guardrail_deadcode":\r\nguardails_obj.guardrail_deadcode()\r\nself.assertTrue(mock_subproc_call.called)\r\nassert exit_mock.called\r\nreturn self.get_log_data(1), self.get_log_data(2)\r\n', 'def get_validate_return(self, val_1, val_2, val_3):\r\n"""Function to refactor test validate_return method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nwith patch(\'sys.exit\') as exit_mock:\r\nguardails_obj.validate_return(val_1, val_2, val_3)\r\nif val_3 is True:\r\nassert exit_mock.called\r\nelse:\r\nassert not exit_mock.called\r\nreturn self.get_log_data(1)\r\n', 'def return_jscpd_false(self, val, message):  # pylint: disable=W0613,R0201\r\n"""Function stubbed to set parse_jscpd_report_json method value to false"""\r\nreturn False\r\n', 'def setUp(self):\r\n""""Sets the directory for the test case"""\r\nimport os\r\nini_path = os.path.abspath(os.path.join\r\n(os.path.dirname(__file__), os.pardir))\r\nini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")\r\nconfig = ConfigParser()\r\nconfig.read(ini_path)\r\nself.report_folder = (config.get(\'folder\', \'report_folder\'))\r\nif not os.path.exists(self.report_folder):\r\nos.makedirs(self.report_folder)\r\n', 'def stub_get_all_func_cnn():\r\n"""Function stubbed to return get_all_func_cnn function return value"""\r\nlist_data = {\r\n\'get_file_names(...) at core_extractor.py:11\': \'3\',\r\n\'get_function_names(...) at core_extractor.py:28\': \'7\'}\r\nreturn list_data\r\n', 'def stub_globals(guardails_obj):\r\n"""Function to stub all globals"""\r\nguardails_obj.src_folder = "abc"\r\nguardails_obj.test_folder = "test"\r\nguardails_obj.pytest = "abc"\r\nguardails_obj.report_folder = "abc/report"\r\nguardails_obj.cyclo_exclude = "abc/None"\r\nguardails_obj.python = "python"\r\nguardails_obj.pylintrc = ".pylintrc"\r\nguardails_obj.covrc = ".cov"\r\nguardails_obj.dup_token = 10\r\nguardails_obj.percent_cov = 80\r\nguardails_obj.allow_dup = 20\r\nguardails_obj.cc_limit = 10\r\nguardails_obj.allow_mutants = 10\r\nguardails_obj.all_folders = guardails_obj.src_folder + " " + guardails_obj.test_folder\r\nguardails_obj.linting = True\r\nguardails_obj.cpd = True\r\nguardails_obj.cov = True\r\nguardails_obj.mutation = True\r\nguardails_obj.deadcode = True\r\nguardails_obj.cycloc = True\r\nguardails_obj.lint_ignore = "x"\r\nguardails_obj.programming_language = "java"\r\nguardails_obj.jscpd_ignore = "y"\r\nguardails_obj.dead_code_ignore = "z"\r\n', 'def stub_validate_return(self, val, message, guardrail):  # pylint: disable=W0613,R0201\r\n"""Function stubbed to return false"""\r\nreturn False\r\n', 'def tearDown(self):\r\n""""Deletes the log files created."""\r\nimport os\r\nini_path = os.path.abspath(os.path.join\r\n(os.path.dirname(__file__), os.pardir))\r\nfile_name = os.path.join(ini_path, "guardrails", "guardrails.log")\r\nif os.path.exists(file_name):\r\nopen(file_name, \'w\').close()\r\n', 'def test_call_subprocess_error(self):\r\n"""Function to test call_subprocess_error method"""\r\nguardails_obj = self.get_guardrails_obj()\r\ntry:\r\nguardails_obj.call_subprocess("lshrs")\r\nexcept KeyError:\r\npass\r\nself.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)\r\n', 'def test_call_subprocess_noerror(self):\r\n"""Function to test call_subprocess_noerror method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nret_val = guardails_obj.call_subprocess("dir")\r\nself.assertEqual(ret_val, 0)\r\n', 'def test_check_pass_fail_success(self):\r\n"""Function to test check_pass_fail_success method"""\r\nlist_test = [[10, 100, 10, "Guardrail gating, passed mutation"],\r\n[10, 100, 1, "Guardrail gating, failed mutation"],\r\n[10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]\r\nfor i, _ in enumerate(list_test):\r\nself.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],\r\nlist_test[i][1], list_test[i][2]))\r\n', 'def test_check_report_dir(self, mock_path_exists, mock_mkdir):\r\n"""Function to test check_report_dir method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nmock_path_exists.return_value = True\r\nmock_mkdir.return_value = False\r\nguardails_obj.check_report_dir()\r\nself.assertTrue(mock_mkdir.called)\r\n', 'def test_file_exists(self):\r\n"""Function to test file_exists method"""\r\nimport os\r\nGuardrailGlobals.generate_pylint_cmd = self.generate_pylint_cmd\r\nwith patch(\'sys.exit\') as exit_mock:\r\nGuardails.file_exists(os.path.abspath(os.path.join(os.path.dirname(__file__), os.pardir)))\r\nassert not exit_mock.called\r\n', 'def test_file_exists_exit(self):  # pylint: disable=R0201\r\n"""Function to test file_exists_exit method"""\r\nwith patch(\'sys.exit\') as exit_mock:\r\nGuardails.file_exists("abc")\r\nassert exit_mock.called\r\n', 'def test_get_all_func_cnn(self):\r\n"""Function to test get_all_func_cnn method"""\r\nfile_name = self.get_file_name("test_resource", "CC.xml")\r\nguardails_obj = self.get_guardrails_obj()\r\nguardails_obj.get_index_cnn = Mock()\r\nguardails_obj.get_index_cnn.return_value = int(2)\r\nexpec_data = {\r\n\'get_file_names(...) at core_extractor.py:11\': \'3\',\r\n\'get_function_names(...) at core_extractor.py:28\': \'7\'}\r\nroot = ETree.parse(file_name).getroot()\r\nfor functions in root.iter(\'measure\'):\r\nif functions.attrib[\'type\'] == "Function":\r\nassert expec_data == guardails_obj.get_all_func_cnn(functions)\r\nfile_name = self.get_file_name("test_resource", "CC_test_Func.xml")\r\nroot = ETree.parse(file_name).getroot()\r\nwith patch(\'sys.exit\') as exit_mock:\r\nfor functions in root.iter(\'measure\'):\r\nif functions.attrib[\'type\'] == "Function":\r\nguardails_obj.get_all_func_cnn(functions)\r\nfile_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")\r\nroot = ETree.parse(file_name).getroot()\r\nfor functions in root.iter(\'measure\'):\r\nif functions.attrib[\'type\'] == "Function":\r\nguardails_obj.get_all_func_cnn(functions)\r\nassert exit_mock.called\r\nline = self.get_log_data(2)\r\nself.assertTrue(\r\n"Guardrail unable to find the tags item/value/name in the report " in line)\r\nline = self.get_log_data(1)\r\nself.assertTrue(\r\n"Guardrail unable to find the tags item/value/name in the report file " in line)\r\n', 'def test_get_index_cnn(self):\r\n"""Function to test get_index_cnn method"""\r\nfile_name = self.get_file_name("test_resource", "CC.xml")\r\nguardails_obj = self.get_guardrails_obj()\r\nroot = ETree.parse(file_name).getroot()\r\nfor functions in root.iter(\'measure\'):\r\nif functions.attrib[\'type\'] == "Function":\r\nassert guardails_obj.get_index_cnn(functions) == 2\r\nfile_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")\r\nroot = ETree.parse(file_name).getroot()\r\nwith patch(\'sys.exit\') as exit_mock:\r\nfor functions in root.iter(\'measure\'):\r\nif functions.attrib[\'type\'] == "Function":\r\nguardails_obj.get_index_cnn(functions)\r\nassert exit_mock.called\r\nline = self.get_log_data(1)\r\nself.assertTrue("Guardrail unable to find the tag CCN in the report " in line)\r\n', 'def test_guardrail_coverage(self):\r\n"""Function to test guardrail_coverage method"""\r\nline_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")\r\nprint(line_2)\r\nself.assertTrue("Guardrail , passed Coverage threshold" in line_1)\r\nval = r\'mypython -m coverage report --fail-under=85\'\r\nself.assertTrue(str(val) in line_2)\r\n', 'def test_guardrail_coverage_fail(self):\r\n"""Function to test guardrail_coverage_fail method"""\r\nline_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")\r\nprint(line_2)\r\nself.assertTrue("Guardrail , failed Coverage threshold" in line_1)\r\nval = r\'mypython -m coverage report --fail-under=85\'\r\nself.assertTrue(str(val) in line_2)\r\n', 'def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):\r\n"""Function to test guardrail_cyclomatic_complexity method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nguardails_obj.parse_cyclo_report_xml = Mock()\r\nguardails_obj.parse_cyclo_report_xml.return_value = {\r\n\'get_file_names(...) at C:\\\\Projects\\\\PythonRepo\\\\python_sample\\\\FunctionDefExtractor\'\r\n\'\\\\functiondefextractor\\\\core_extractor.py:11\': \'3\',\r\n\'get_function_names(...) at C:\\\\Projects\\\\PythonRepo\\\\python_sample\\\\FunctionDefExtractor\'\r\n\'\\\\functiondefextractor\\\\core_extractor.py:28\': \'7\'}\r\nmock_subproc_call.return_value = False\r\nguardails_obj.guardrail_cyclomatic_complexity()\r\nself.assertTrue(mock_subproc_call.called)\r\nline = self.get_log_data(1)\r\nself.assertTrue("Guardrail , passed Cyclomatic complexity" in line)\r\nmock_subproc_call.return_value = True\r\nwith patch(\'sys.exit\') as exit_mock:\r\nguardails_obj.guardrail_cyclomatic_complexity()\r\nline = self.get_log_data(2)\r\nself.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)\r\nassert exit_mock\r\n', 'def test_guardrail_deadcode(self):\r\n"""Function to test guardrail_deadcode method"""\r\nimport os\r\nline_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")\r\nself.assertTrue("Guardrail , passed Dead code detection" in line_1)\r\nval = r\'mypython -m vulture functiondefextractor \' \\\r\nr\'test  --exclude PythonRepo\' \\\r\nr\'test --min-confidence 100 &gt;PythonRepo\' \\\r\nr\'\\REPORT\\deadcode.txt\'\r\nself.assertTrue(val.replace("\\\\", os.sep) in line_2.replace(\'\\\\\', os.sep).replace("/", os.sep))\r\n', 'def test_guardrail_deadcode_fail(self):\r\n"""Function to test guardrail_deadcode_fail method"""\r\nimport os\r\nline_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")\r\nself.assertTrue("Guardrail , failed Dead code detection" in line_1)\r\nval = r\'mypython -m vulture FunctionDefExtractor\' \\\r\nr\'test  --exclude\' \\\r\nr\'test --min-confidence 100 &gt;C:\\Projects\' \\\r\nr\'deadcode.txt\'\r\nself.assertTrue(val.replace(\'\\\\\', os.sep) in line_2.replace(\'\\\\\', os.sep).replace("/", os.sep))\r\n', 'def test_guardrail_jscpd(self):\r\n"""Function to test guardrail_jscpd method"""\r\nline_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")\r\nself.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)\r\nval = r\'command for sub process:jscpd --min-tokens 20  --ignore test  --max-lines 100000 --max-size 100mb --reporters "json,html"\' \\\r\nr\' --mode "strict" --format "python, java" -o\'\r\nself.assertTrue(str(val) in line_2)\r\n', 'def test_guardrail_jscpd_fail(self):\r\n"""Function to test guardrail_jscpd_fail method"""\r\nline_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")\r\nself.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)\r\nval = r\'command for sub process:jscpd --min-tokens 20  --ignore python_sample\' \\\r\nr\'test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode \' \\\r\nr\'"strict" --format "python, java" -o\'\r\nself.assertTrue(str(val) in line_2)\r\n', 'def test_guardrail_lint(self, mock_subproc_call):\r\n"""Function to test guardrail_lint method"""\r\nimport os\r\nguardails_obj = self.get_guardrails_obj()\r\nglobal_obj = GuardrailGlobals()\r\nmock_subproc_call.return_value = False\r\nguardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")\r\nguardails_obj.generate_files_lint = MagicMock(return_value=" ")\r\nglobal_obj.report_folder = os.getcwd()\r\nguardails_obj.guardrail_lint()\r\nself.assertTrue(mock_subproc_call.called)\r\nline = self.get_log_data(1)\r\nself.assertTrue("Guardrail , passed Linting." in str(line))\r\nmock_subproc_call.return_value = True\r\nwith patch(\'sys.exit\') as exit_mock:\r\nguardails_obj.guardrail_lint()\r\nline = self.get_log_data(1)\r\nself.assertTrue("Guardrail , failed Linting." in str(line))\r\nassert exit_mock\r\nself.assertTrue(mock_subproc_call.called)\r\n', 'def test_guardrail_mutation(self, mock_subproc_call):\r\n"""Function to test guardrail_mutation method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nguardails_obj.parse_mutmut_report_xml = Mock()\r\nguardails_obj.parse_mutmut_report_xml.return_value = None\r\nmock_subproc_call.return_value = False\r\nguardails_obj.guardrail_mutation()\r\nself.assertTrue(mock_subproc_call.called)\r\nline = self.get_log_data(1)\r\nself.assertTrue("Guardrail task, passed Mutation testing report generation." in line)\r\nmock_subproc_call.return_value = True\r\nwith patch(\'sys.exit\') as exit_mock:\r\nguardails_obj.guardrail_mutation()\r\nline = self.get_log_data(1)\r\nself.assertTrue("Guardrail task, failed Mutation testing " in line)\r\nassert exit_mock\r\n', 'def test_guardrail_test(self):\r\n"""Function to test guardrail_test method"""\r\nline_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")\r\nself.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)\r\nval = r\'mypython -m pytest FunctionDefExtractor\' \\\r\nr\' --cov-config=.coveragerc \' \\\r\nr\'--cov-report "html" --cov=python_sample\' \\\r\nr\'\\FunctionDefExtractor\\functiondefextractor\'\r\nself.assertTrue(str(val) in line_2)\r\n', 'def test_guardrail_test_fail(self):\r\n"""Function to test guardrail_test_fail method"""\r\nline_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")\r\nself.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)\r\nval = r\'mypython -m pytest FunctionDefExtractor \' \\\r\nr\'--cov-config=.coveragerc \' \\\r\nr\'--cov-report "html" --cov=python_sample\' \\\r\nr\'functiondefextractor\'\r\nself.assertTrue(str(val) in line_2)\r\n', 'def test_list_to_str_folders(self):\r\n"""Function to test list_to_str_folders method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nself.stub_globals(guardails_obj)\r\nself.assertEqual(guardails_obj.list_to_str_folders(), "abc test")\r\n', 'def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):\r\n"""Function to test mov_cov_report method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nprocess_sub_mock = mock.Mock()\r\npatcher_exist = mock.patch(\'os.path.exists\')\r\nmock_thing = patcher_exist.start()\r\nmock_thing.return_value = True\r\npatcher_isdir = mock.patch(\'os.path.isdir\')\r\nmock_thing_isdir = patcher_isdir.start()\r\nmock_thing_isdir.return_value = True\r\nmock_subproc_call.return_value = process_sub_mock\r\nmock_shut_rmtr.return_value = process_sub_mock\r\nmock_shut_mov.return_value = process_sub_mock\r\nguardails_obj.validate_return = self.stub_validate_return\r\nguardails_obj.mov_cov_report()\r\nself.assertTrue(mock_subproc_call.called)\r\n', 'def test_orchestrate_guardrails(self):\r\n"""Function to test orchestrate_guardrails method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nguardails_obj.check_report_dir = Mock()\r\nguardails_obj.mov_cov_report = Mock()\r\nguardails_obj.mov_cov_report.return_value = True\r\nself.assertTrue(guardails_obj.mov_cov_report.return_value)\r\nguardails_obj.guardrail_lint = Mock()\r\nguardails_obj.guardrail_lint.return_value = True\r\nself.assertTrue(guardails_obj.guardrail_lint.return_value)\r\nguardails_obj.guardrail_jscpd = Mock()\r\nguardails_obj.guardrail_jscpd.return_value = True\r\nself.assertTrue(guardails_obj.guardrail_jscpd.return_value)\r\nguardails_obj.guardrail_test = Mock()\r\nguardails_obj.guardrail_test.return_value = True\r\nself.assertTrue(guardails_obj.guardrail_test.return_value)\r\nguardails_obj.guardrail_coverage = Mock()\r\nguardails_obj.guardrail_coverage.return_value = True\r\nself.assertTrue(guardails_obj.guardrail_coverage.return_value)\r\nguardails_obj.guardrail_mutation = Mock()\r\nguardails_obj.guardrail_mutation.return_value = True\r\nself.assertTrue(guardails_obj.guardrail_mutation.return_value)\r\nguardails_obj.guardrail_deadcode = Mock()\r\nguardails_obj.guardrail_deadcode.return_value = True\r\nself.assertTrue(guardails_obj.guardrail_deadcode.return_value)\r\nguardails_obj.guardrail_cyclomatic_complexity = Mock()\r\nguardails_obj.guardrail_cyclomatic_complexity.return_value = True\r\nself.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)\r\nguardails_obj.orchestrate_guardrails()\r\n', 'def test_parse_cyclo_report_xml(self):\r\n"""Function to test parse_cyclo_report_xml method"""\r\nfile_name = self.get_file_name("test_resource", "CC.xml")\r\nguardails_obj = self.get_guardrails_obj()\r\nguardails_obj.get_all_func_cnn = Mock()\r\nguardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn\r\nassert guardails_obj.parse_cyclo_report_xml(file_name)\r\nfile_name = self.get_file_name("test_resourc", "CC.xml")\r\nwith patch(\'sys.exit\') as exit_mock:\r\nguardails_obj.parse_cyclo_report_xml(file_name)\r\nline = self.get_log_data(1)\r\nself.assertTrue("cc.xml report file path" in line)\r\nfile_name = self.get_file_name("test_resource", "CC_test.xml")\r\nguardails_obj.parse_cyclo_report_xml(file_name)\r\nfile_name = self.get_file_name("test_resource", "CC_test_None.xml")\r\nguardails_obj.parse_cyclo_report_xml(file_name)\r\nline = self.get_log_data(1)\r\nself.assertTrue("tags required are not found in cc.xml report file path" in line)\r\nassert exit_mock.called\r\n', 'def test_parse_jscpd_report_json(self):\r\n"""Function to test parse_jscpd_report_json method"""\r\nguardails_obj = self.get_guardrails_obj()\r\nfile_name = self.get_file_name("test_resource", "jscpd-report.json")\r\nguardails_obj.parse_jscpd_report_json(5, file_name)\r\nwith patch(\'sys.exit\') as exit_mock:\r\nguardails_obj.parse_jscpd_report_json(0, file_name)\r\nfile_name = self.get_file_name("test_resource", "jscpd-report_test.json")\r\nguardails_obj.parse_jscpd_report_json(0, file_name)\r\nfile_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")\r\nguardails_obj.parse_jscpd_report_json(0, file_name)\r\nassert exit_mock.called\r\nline = self.get_log_data(3)\r\nself.assertTrue("Guardrail gating, failed jscpd." in line)\r\nline = self.get_log_data(4)\r\nself.assertTrue("Guardrail gating passed jscpd" in line)\r\nline = self.get_log_data(2)\r\nself.assertTrue("jscpd report not correctly generated" in line)\r\nline = self.get_log_data(1)\r\nself.assertTrue("jscpd report not generated" in line)\r\n', 'def test_parse_mutmut_report_xml(self):\r\n"""Function to test parse_mutmut_report_xml method"""\r\nfile_name = self.get_file_name("test_resource", "mutmut.xml")\r\nguardails_obj = self.get_guardrails_obj()\r\nguardails_obj.parse_mutmut_report_xml(50, file_name)\r\nline = self.get_log_data(1)\r\nself.assertTrue("Guardrail gating, passed mutation" in str(line))\r\nfile_name = self.get_file_name("test_resourc", "mutmut.xml")\r\nwith patch(\'sys.exit\') as exit_mock:\r\nguardails_obj.parse_mutmut_report_xml(50, file_name)\r\nassert exit_mock.called\r\nline = self.get_log_data(1)\r\nself.assertTrue("mutmut.xml report file path cound not be found" in line)\r\n', 'def test_validate_return(self):\r\n"""Function to test validate_return method"""\r\nlist_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]\r\nfor i, _ in enumerate(list_test):\r\nassert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \\\r\n== list_test[i][3]\r\n']</t>
-  </si>
-  <si>
-    <t>['constructor(public firstName: string, public middleInitial: string, public lastName: string) {\r\nthis.fullName = firstName + " " + middleInitial + " " + lastName\r\n}\r\n', 'function greeter(person: Person) {\r\nreturn "Hello, " + person.firstName + " " + person.lastName\r\n}\r\n']</t>
-  </si>
-  <si>
-    <t>['function greeter(person) {\r\nreturn "Hello, " + person.firstName + " " + person.lastName\r\n}\r\n']</t>
+    <t>['/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_afterAll', '/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_beforeAll', '/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_getCerberusCommandLineUsageString', '/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCallMethod', '/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCerebrusWithArguments', '/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCerebruswithOutArguments', '/functiondefextractor/test_resource/test_repo/src/CerberusTest.java_testCerebruswithWrongArguments', '/functiondefextractor/test_resource/test_repo/src/HelloController.java_index1', '/functiondefextractor/test_resource/test_repo/src/HelloController.java_index2', '/functiondefextractor/test_resource/test_repo/src/HelloController.java_meth', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_ARSorting', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_AutoRefreshImport', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_ChangePatientDetails', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_Choosefolder', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_DeidentifyPatientDetails', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_DeleteAllStudies', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_GetPictorialIndex', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_GetPictorialIndexSeriesNobyDescription', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_PIContextMenuCopyTo', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_PIContextMenuCopyToRighClick', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_PIToggle', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_ProgressBar', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_RightClickPISelectedSeries', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_RunScriptsinRemoteSystem', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_SelectPISeriesByMouseHover', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_SelectPictorialSeriesByIndexvalue', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_SelectPictorialSeriesBySeriesValue', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_SeriesFilesCount', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_SeriesReportCount', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_SeriesSelect', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_VerifyCSROIApplication', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_VerifyisPatientSelected', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_runNetworkLogin', '/functiondefextractor/test_resource/test_repo/src/test_repo.java_runNetworkLogout', '/functiondefextractor/test_resource/test_repo/test/TestHelloController.java_Test_AddMethod', '/functiondefextractor/test_resource/test_repo/test/TestHelloController.java_Test_AddMethod', '/functiondefextractor/test_resource/test_repo/tst/TstHelloController.java_Test_AddMethod', '/functiondefextractor/test_resource/test_repo/tst/TstHelloController.java_Test_AddMethod']</t>
+  </si>
+  <si>
+    <t>['/functiondefextractor/test_resource/test_repo/tst/test.cs_Test_AddMethod', '/functiondefextractor/test_resource/test_repo/tst/test.cs_Test_DivideMethod', '/functiondefextractor/test_resource/test_repo/tst/test.cs_Test_MultiplyMethod', '/functiondefextractor/test_resource/test_repo/tst/test.cs_Test_SubstractMethod']</t>
+  </si>
+  <si>
+    <t>['/functiondefextractor/test_resource/test_repo/src/test_c.c_main', '/functiondefextractor/test_resource/test_repo/src/test_c.c_swap']</t>
+  </si>
+  <si>
+    <t>['/functiondefextractor/test_resource/test_repo/src/test_cpp_code.cpp_main', '/functiondefextractor/test_resource/test_repo/src/test_cpp_code.cpp_relational_operation']</t>
+  </si>
+  <si>
+    <t>['/functiondefextractor/test_resource/test_repo/src/python_annot_file.py_create_parser', '/functiondefextractor/test_resource/test_repo/src/python_annot_file.py_validate_return', '/functiondefextractor/test_resource/test_repo/src/python_file.py_create_parser', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_generate_pylint_cmd', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_get_check_pass_fail_status', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_get_file_name', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_get_guardrails_obj', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_get_log_data', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_get_test_guardrail_gate_status', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_get_test_guardrail_gate_status_fail', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_get_validate_return', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_return_jscpd_false', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_setUp', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_stub_get_all_func_cnn', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_stub_globals', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_stub_validate_return', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_tearDown', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_call_subprocess_error', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_call_subprocess_noerror', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_check_pass_fail_success', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_check_report_dir', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_file_exists', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_file_exists_exit', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_get_all_func_cnn', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_get_index_cnn', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_coverage', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_coverage_fail', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_cyclomatic_complexity', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_deadcode', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_deadcode_fail', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_jscpd', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_jscpd_fail', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_lint', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_mutation', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_test', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_guardrail_test_fail', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_list_to_str_folders', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_mov_cov_report', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_orchestrate_guardrails', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_parse_cyclo_report_xml', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_parse_jscpd_report_json', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_parse_mutmut_report_xml', '/functiondefextractor/test_resource/test_repo/src/test_guardrails.py_test_validate_return']</t>
+  </si>
+  <si>
+    <t>['/functiondefextractor/test_resource/test_repo/src/typescript_sample.ts_constructor', '/functiondefextractor/test_resource/test_repo/src/typescript_sample.ts_greeter']</t>
+  </si>
+  <si>
+    <t>['/functiondefextractor/test_resource/test_repo/src/typescript_sample.js_greeter']</t>
+  </si>
+  <si>
+    <t>['public void afterAll() {\nsuper.restoreStreams()\n}\n', 'public void beforeAll() {\nsuper.setUpStreams()\n}\n', 'private String getCerberusCommandLineUsageString() {\nreturn new StringBuilder().append("Usage: Cerberus [COMMAND]").append(NEW_LINE).append("Waking Cerberus to devour bad things in the system").append(NEW_LINE).append("Commands:")\n.append(NEW_LINE).append("  CPD            Detect duplicated blocks of code in your source code").append(NEW_LINE)\n.append("  SWD            Detect all the warnings which are suppressed in your code").append(NEW_LINE).append("  JPMD           Java Programming Mistakes Detector")\n.append(NEW_LINE).append("  JCMD           Java Code Metrics Detector").append(NEW_LINE).toString()\n}\n', 'public void testCallMethod() throws Exception {\nassertEquals(Integer.valueOf(0), new Cerberus().call())\n}\n', 'public void testCerebrusWithArguments() {\ngetOriginalOutputStream().flush()\nCerberus.main(new String[] { "CPD" })\n}\n', 'public void testCerebruswithOutArguments() {\nCerberus.main(new String[] {})\nString expectedOutputString = getCerberusCommandLineUsageString()\nassertEquals(expectedOutputString, getModifiedOutputStream().toString())\n}\n', 'public void testCerebruswithWrongArguments() {\nString dummyArgument = "dummy argument"\nCerberus.main(new String[] { dummyArgument })\nString expectedOutputString = new StringBuilder().append("Unmatched argument at index 0: \'dummy argument\'").append(NEW_LINE).append(getCerberusCommandLineUsageString()).toString()\n}\n', 'public String index1() {\nreturn "Final"\n}\n', 'public String index2() throws IOException {\nfinal String cmd1 = "git clone " + str\nfinal ProcessBuilder builder1 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + cmd1)\nfinal Process p = builder1.start()\ntry {\np.waitFor()\n} catch (final InterruptedException e) {\ne.printStackTrace()\n}\nString fileName = str.substring(str.lastIndexOf(\'/\') + 1)\nfileName = fileName.substring(0, fileName.length() - 4)\n\nfinal String cmd2 = "jscpd --min-" + str1 + " " + str2\n+ " --reporters html --output C:\\\\test --mode strict C:\\\\test\\\\" + fileName\n\nfinal ProcessBuilder builder2 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + cmd2)\nfinal Process p1 = builder2.start()\ntry {\np1.waitFor()\n} catch (final InterruptedException e) {\ne.printStackTrace()\n}\nfinal String command3 = "RD /S /Q  C:\\\\test\\\\" + fileName\nfinal ProcessBuilder builder3 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + command3)\nfinal Process p3 = builder3.start()\ntry {\np3.waitFor()\n} catch (final InterruptedException e) {\ne.printStackTrace()\n}\nfinal long seconds = System.currentTimeMillis()\nfinal String rname = seconds + "-" + fileName + "-jscpd-report.html"\n\nfinal String command4 = "ren " + "jscpd-report.html " + rname\nfinal ProcessBuilder builder5 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + command4)\nfinal Process p4 = builder5.start()\ntry {\np4.waitFor()\n} catch (final InterruptedException e) {\ne.printStackTrace()\n}\nfinal String cmd3 = "start " + rname\nfinal ProcessBuilder builder4 = new ProcessBuilder("cmd.exe", "/c", "cd \\"C:\\\\test\\" &amp;&amp; " + cmd3)\nfinal Process p2 = builder4.start()\ntry {\np2.waitFor()\n} catch (final InterruptedException e) {\ne.printStackTrace()\n}\nfinal String excelFilePath = "C:\\\\test\\\\Data_log.xlsx"\nfinal FileInputStream inputStream = new FileInputStream(new File(excelFilePath))\nfinal Workbook workbook = WorkbookFactory.create(inputStream)\n\nfinal Sheet sheet = workbook.getSheetAt(0)\n\nfinal int rowCount = sheet.getLastRowNum()\nfinal Row row = sheet.getRow(rowCount)\nfinal int columnCount = 1\n\nfinal Cell cell = row.createCell(columnCount)\ncell.setCellValue("C:\\\\test\\\\" + rname)\n\ninputStream.close()\n\nfinal FileOutputStream outputStream = new FileOutputStream("C:\\\\test\\\\Data_log.xlsx")\nworkbook.write(outputStream)\nworkbook.close()\noutputStream.close()\n\nSystem.out.println("Got your Report")\n\nreturn "Final"\n\n}\n', 'public String meth(@RequestParam("Source_URL") final String name, @RequestParam("tok_lin") final String name1,\n@RequestParam("count") final String name2) throws IOException {\n\nstr = name\nstr1 = name1\nstr2 = name2\nfinal String rname = "Output.py"\nfinal String command5 = "ren " + str + " " + rname\nfinal ProcessBuilder builder6 = new ProcessBuilder("cmd.exe", "/c",\n"cd \\"C:\\\\Users\\\\320074769\\\\Downloads\\" &amp;&amp; " + command5)\nfinal Process p5 = builder6.start()\ntry {\np5.waitFor()\n} catch (final InterruptedException e) {\ne.printStackTrace()\n}\n\nfinal String command4 = "python " + rname\nfinal ProcessBuilder builder5 = new ProcessBuilder("cmd.exe", "/c",\n"cd \\"C:\\\\Users\\\\320074769\\\\Downloads\\" &amp;&amp; " + command4)\n\nfinal Process p4 = builder5.start()\ntry {\np4.waitFor()\n} catch (final InterruptedException e) {\ne.printStackTrace()\n}\nreturn "\\"Got your report :)\\""\n\n}\n', 'function ARSorting(columnName,sortingOrder,study)\n{\nvar commonGrid= Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]\nvar prop = new Array( "ClrClassName","Name","Visible" )\nvar Val = new Array("BoundColumnSelectedGrid","[\\"WinFormsObject\\"](\\"grid\\")",true )\n\nif(study)\n{\nvar grid=commonGrid["SplitterPanel"]["FindChild"](prop,Val, 100)\n}\nelse\n{\nvar grid=commonGrid["SplitterPanel_1"]["FindChild"](prop,Val, 100)\n}\nif(grid["Exists"])\n{\nvar columnCount=grid["DefaultView"]["Columns"]["Count"]\nfor(var i=0\n{\nvar colName=grid["DefaultView"]["Columns"]["Item_2"](i)["Caption"]["OleValue"]\nif(VarToStr(colName)==VarToStr(columnName))\n{\ngrid["DefaultView"]["Columns"]["Item_2"](i)["set_SortOrder"](sortingOrder)\nbreak\n}\n}\n}\nelse\n{\nLog["Error"]("grid does not exists")\n}\nWait(2)\n}\n', 'function AutoRefreshImport(path,folderName,MRstudy_vendor)\n{\n\nvar gridcount \nvar pdcount \nvar flag =0\nvar status1 = false\nvar status2 = false\n\nvar pdProc = Sys["Process"]("PatientDirectory")\nproperties = new Array( "ClrClassName","Name", "Visible" )\nvalues = new Array("PmsButtonMatrixCombo","[\\"WinFormsObject\\"](\\"matrixCombo\\")",true )\nvar folderSpace= pdProc["FindChild"](properties, values, 100)\nif(folderSpace["Exists"])\n{\nfolderSpace["ClickR"]()\nContextMenu("Import Data")\nvar importDialog= pdProc["WinFormsObject"]("PmsImportDialog")\nif(importDialog["Exists"])\n{\nvar sourcePath=importDialog["WinFormsObject"]("panel2")["WinFormsObject"]("pathHistoryCombo")\nsourcePath["SetText"](path)\nsourcePath["Keys"]("[Enter]")\n\nvar propVal = new Array( "ClrClassName","Visible" )\nvar varVal = new Array("FileSystemListView",true )\nvar sourceFolder= pdProc["FindChild"](propVal, varVal, 100)\nsourceFolder["ClickItem"](folderName)\nvar okButton= importDialog["WinFormsObject"]("panel3")["WinFormsObject"]("panel1")["WinFormsObject"]("btnOK")\nokButton["Click"]()\nLog["Message"]("Clicking on ok button")\nWait(1)\n\nvar prop = new Array( "ClrClassName","Visible" )\nvar Val = new Array("PmsProgressBar",true )\nvar progressBar= pdProc["FindChild"](prop,Val, 100)\nif(progressBar["Exists"])\n{\nwhile(progressBar["Exists"])\n{\nif(progressBar["Value"] &gt; 25 &amp;&amp; progressBar["Value"] &lt; 30 &amp;&amp; flag == 0)\n{\ngridcount = StudyCount()\npdcount = CopyDeleteLibrary["GetStudyCounts"]("Display")\n\nif(gridcount == pdcount)\n{\nLog["Message"](" Study counts are equal")\nstatus1 = true\n}\nelse\nLog["Warning"]("Study counts are not equal")\n\nflag = 1\n}\n\nif(progressBar["Value"] &gt; 50 &amp;&amp; progressBar["Value"] &lt; 55 &amp;&amp; flag == 1)\n{\nSelectPatient(MRstudy_vendor)\nif(flag == 1)\n{\nstatus2 = VerifyisPatientSelected(MRstudy_vendor)\nif(status2)\n{\nLog["Message"](MRstudy_vendor+" study is marked with blue background")\n}\nelse\n{\nLog["Warning"](MRstudy_vendor+"study is not marked with blue background")\nstatus1 = false\n}\nflag = 2\n}\n}\n\nif(progressBar["Value"] &gt; 70 &amp;&amp; progressBar["Value"] &lt; 75 &amp;&amp; flag == 2)\n{\nARSorting("Patient Name","Ascending",true)\nSelectPatient(MRstudy_vendor)\nstatus2 = VerifyisPatientSelected(MRstudy_vendor)\nif(status2)\n{\nLog["Message"](MRstudy_vendor+" study is marked with blue background after sorting in ascending order")\n}\nelse\n{\nLog["Warning"](MRstudy_vendor+"study is not marked with blue background after sorting in ascending order")\nstatus1 = false\n}\nflag = 3\n}\n\nif(progressBar["Value"] &gt; 90 &amp;&amp; progressBar["Value"] &lt; 95 &amp;&amp; flag == 3)\n{\nARSorting("Patient Name","Descending",true)\nSelectPatient(MRstudy_vendor)\nstatus2 = VerifyisPatientSelected(MRstudy_vendor)\nif(status2)\n{\nLog["Message"](MRstudy_vendor+" study is marked with blue background after sorting in descending order")\n}\nelse\n{\nLog["Warning"](MRstudy_vendor+"study is not marked with blue background after sorting in descending order")\nstatus1 = false\n}\nflag = 4\n}\nWait(1)\n}\nreturn status1\n}\nelse\n{\nproperties = new Array( "ClrClassName", "Visible" )\nvalues = new Array("PmsStatusInformationCombo",true )\nvar messageForm= pdProc["FindChild"](properties, values, 100)\nvar messageCount=messageForm["Items"]["Count"]-1\nvar message=messageForm["Items"]["Item"](messageCount)["Message"]["OleValue"]\nif(message=="Import Ended")\n{\nLog["Message"]("Import successful")\nreturn true\n}\nelse\n{\nLog["Error"]("Progress bar not found")\nreturn false\n}\n}\n}\nelse\n{\nLog["Error"]("ImportDialog doesn\'t exist")\nreturn false\n}\n}\nelse\n{\nLog["Error"]("Folder space doesn\'t exists")\nreturn false\n}\n}\n', 'function ChangePatientDetails(fName,lName,DefaultDevice)\n{\nvar CPD=Aliases["PatientDirectory"]["CPD"]\nCPD["WaitProperty"]("Exists", true, 30000)\nAliases["PatientDirectory"]["PmsMessageBox"]["OK"]["Click"]()\nWait(1)\nif(fName!="")\n{\nCPD["firstName"]["SetText"](fName)\n}\nif(lName!="")\n{\nCPD["lastName"]["SetText"](lName)\n}\nSys["Process"]("PatientDirectory")["WinFormsObject"]("CreateNewStudyForm")["WinFormsObject"]("raisedPanel")["WinFormsObject"]("chooseDevicesButton")["ClickButton"]()\n\nChoosefolder("Local",DefaultDevice)\nCPD["save"]["ClickButton"]()\nWait(1)\nSys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("Yes")["Click"]()\nProgressBar()\n}\n', 'function Choosefolder(folderType,folderName)\n{\nWait(2)\nvar copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"]\nif(copyDialogBox["resetButton"]["Enabled"])\n{\ncopyDialogBox["resetButton"]["ClickButton"]()\n}\nif(copyDialogBox["Exists"])\n{\nif(VarToStr(folderType)=="Local")\n{\nvar folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"]\nvar matrix=copyDialogBox["Matrices"]["Item"](0)\nvar prop=new Array("WndCaption","Visible")\nvar val=new Array("Local Devices",true)\nvar location=copyDialogBox["FindChild"](prop,val,100)\n}\nelse if(VarToStr(folderType)=="Remote")\n{\nfolderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"]\nvar matrix=copyDialogBox["Matrices"]["Item"](1)\nvar prop=new Array("WndCaption","Visible")\nvar val=new Array("Remote Devices",true)\nvar location=copyDialogBox["FindChild"](prop,val,100)\n}\nvar copied=false\nfor(var i=0\n{\nvar folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"])\nif(folder==folderName)\n{\nif(matrix["Buttons"]["Item"](i)["Enabled"])\n{\ncopied=true\nvar X=matrix["Buttons"]["Item"](i)["location_2"]["X"]\nvar Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"]\nWait(1)\nlocation["Click"](X+10,Y+10)\nWait(2)\ncopyDialogBox["okButton"]["Click"]()\nbreak\n}\nelse\n{\nLog["Error"]("Folder "+folderName+" is not enabled ")\nAddCheckpointResultToReport(false,"","Folder "+folderName+" is not enabled ")\nbreak\n}\n}\n}\nif(!copied)\n{\nAliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]()\nWait(1)\nAddCheckpointResultToReport(false,"","Required folder not found"+folderName)\nLog["Error"]("Required folder not found"+folderName)\n}\n}\nelse\n{\nLog["Error"]("copyDialogbox doesnot exist")\nAddCheckpointResultToReport(false,"","copyDialogbox doesnot exist")\nreturn false\n}\nWait(2)\nreturn copied\n}\n', 'function DeidentifyPatientDetails(lName,DefaultDevice)\n{\nvar dpd = Sys["Process"]("PatientDirectory")["WinFormsObject"]("AnonymiseForm")\ndpd["WaitProperty"]("Exists", true, 30000)\nSys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("OK")["ClickButton"]()\nvar arrys = new Array("ClrClassName","Name", "Visible")\nvar values = new Array("PmsToolPanel","[\\"WinFormsObject\\"](\\"raisedPanel\\")",true )\nvar panel = dpd["FindChild"](arrys,values,100)["WinFormsObject"]("patientDetailsPanel")\n\nif(lName!="" )\n{\npanel["WinFormsObject"]("lastNameTextBox")["SetText"](lName)\n}\nSys["Process"]("PatientDirectory")["WinFormsObject"]("AnonymiseForm")["WinFormsObject"]("raisedPanel")["WinFormsObject"]("chooseDevicesButton")["ClickButton"]()\n\nChoosefolder("Local",DefaultDevice)\ndpd["WinFormsObject"]("saveButton")["ClickButton"]()\nSys["Process"]("PatientDirectory")["WinFormsObject"]("PmsMessageBox")["WinFormsObject"]("Yes")["Click"]()\nProgressBar()\n}\n', 'function DeleteAllStudies()\n{\nvar studygrid = StudyGrid()\n\nstudygrid["Views"]["Item"](0)["SelectAll"]()\nSyncWithStopButton()\nAliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolsPanel"]["leftPanel"]["toolbox"]["panel"]["deleteButton"]["Click"]()\nWait(1)\nAliases["PatientDirectory"]["PmsMessageBox"]["Yes"]["Click"]()\nSyncWithStopButton()\nWait(5)\n}\n', 'function GetPictorialIndex()\n{\nvar panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]\nvar propValues = new Array( "ClrClassName", "Visible" )\nvar varValues = Array( "PictorialLayoutControl", true )\nvar pictorialLayout = panelMain["FindChild"](propValues, varValues, 30)\nreturn pictorialLayout\n}\n', 'function GetPictorialIndexSeriesNobyDescription(description)\n{\nvar pictorialLayout = GetPictorialIndex()\nvar indexstatus = false\nvar picounts = pictorialLayout["Controls"]["Count"]\n\nfor(var i=0\n{\nif(description == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_DESCRIPTION"])\n{\nLog["Message"](i)\nindexstatus = true\nvar seriesno = pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"]\nreturn seriesno\nbreak\n}\n}\n\nif(!indexstatus)\n{\nLog["Checkpoint"]("Series not found")\n}\n}\n', 'function PIContextMenuCopyTo(folderType,folderName)\n{\n\nvar panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]\nvar propValues = new Array( "ClrClassName", "Visible" )\nvar varValues = Array( "PictorialLayoutControl", true )\nvar pictorialLayout = panelMain["FindChild"](propValues, varValues, 30)\n\npictorialLayout["ClickR"](50,50)\nContextMenu("Copy To")\nvar copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"]\nif(copyDialogBox["resetButton"]["Enabled"])\n{\ncopyDialogBox["resetButton"]["ClickButton"]()\n}\nif(copyDialogBox["Exists"])\n{\nif(VarToStr(folderType)=="Local")\n{\nvar folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"]\nvar matrix=copyDialogBox["Matrices"]["Item"](0)\nvar prop=new Array("WndCaption","Visible")\nvar val=new Array("Local Devices",true)\nvar location=copyDialogBox["FindChild"](prop,val,100)\n}\nelse if(VarToStr(folderType)=="Remote")\n{\nfolderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"]\nvar matrix=copyDialogBox["Matrices"]["Item"](1)\nvar prop=new Array("WndCaption","Visible")\nvar val=new Array("Remote Devices",true)\nvar location=copyDialogBox["FindChild"](prop,val,100)\n}\nvar copied=false\nfor(var i=0\n{\nvar folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"])\nif(folder==folderName)\n{\ncopied=true\nvar X=matrix["Buttons"]["Item"](i)["location_2"]["X"]\nvar Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"]\nWait(1)\nlocation["Click"](X+10,Y+10)\nWait(2)\ncopyDialogBox["okButton"]["Click"]()\nbreak\n}\n}\nif(!copied)\n{\nAliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]()\nWait(1)\nLog["Error"]("Required folder not found"+folderName)\n}\n}\nelse\n{\nLog["Error"]("copyDialogbox doesnot exist")\n}\nWait(2)\n}\n', 'function PIContextMenuCopyToRighClick(folderType,folderName)\n{\n\nvar panelMain = Aliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]\nvar propValues = new Array( "ClrClassName", "Visible" )\nvar varValues = Array( "PictorialLayoutControl", true )\nvar pictorialLayout = panelMain["FindChild"](propValues, varValues, 30)\n\nContextMenu("Copy To")\nvar copyDialogBox=Aliases["PatientDirectory"]["CopyToDialog"]\nif(copyDialogBox["resetButton"]["Enabled"])\n{\ncopyDialogBox["resetButton"]["ClickButton"]()\n}\nif(copyDialogBox["Exists"])\n{\nif(VarToStr(folderType)=="Local")\n{\nvar folderCount=copyDialogBox["Matrices"]["Item"](0)["Buttons"]["Count"]\nvar matrix=copyDialogBox["Matrices"]["Item"](0)\nvar prop=new Array("WndCaption","Visible")\nvar val=new Array("Local Devices",true)\nvar location=copyDialogBox["FindChild"](prop,val,100)\n}\nelse if(VarToStr(folderType)=="Remote")\n{\nfolderCount=copyDialogBox["Matrices"]["Item"](1)["Buttons"]["Count"]\nvar matrix=copyDialogBox["Matrices"]["Item"](1)\nvar prop=new Array("WndCaption","Visible")\nvar val=new Array("Remote Devices",true)\nvar location=copyDialogBox["FindChild"](prop,val,100)\n}\nvar copied=false\nfor(var i=0\n{\nvar folder=VarToStr(matrix["Buttons"]["Item"](i)["Text"]["OleValue"])\nif(folder==folderName)\n{\ncopied=true\nvar X=matrix["Buttons"]["Item"](i)["location_2"]["X"]\nvar Y=matrix["Buttons"]["Item"](i)["location_2"]["Y"]\nWait(1)\nlocation["Click"](X+10,Y+10)\nWait(2)\ncopyDialogBox["okButton"]["Click"]()\nbreak\n}\n}\nif(!copied)\n{\nAliases["PatientDirectory"]["CopyToDialog"]["cancelButton"]["Click"]()\nWait(1)\nLog["Error"]("Required folder not found"+folderName)\n}\n}\nelse\n{\nLog["Error"]("copyDialogbox doesnot exist")\n}\nWait(2)\n}\n', 'function PIToggle()\n{\nAliases["PatientDirectory"]["PatientDirectoryForm"]["PmsToolPanel"]["rightPanel"]["SplitContainer"]["SplitterPanel_1"]["bottomPanel"]["tabControl"]["seriesPage"]["toggleButton"]["Click"]()\nWait(5)\nvar PI=Aliases["PatientDirectory"]["PatientDirectoryForm"]["FindChild"]("ClrClassName","PictorialIndexPanel",100)\nif(PI["VisibleOnScreen"])\n{\nLog["Checkpoint"]("Series Thumbnail view is displayed on toggling")\nstatus2=true\n}\nelse\n{\nLog["Error"]("Series Thumbnail view is not displayed on toggling")\nstatus2=false\n}\nreturn status2\n}\n', 'function ProgressBar()\n{\nvar pdProc = Sys["Process"]("PatientDirectory")\nvar prop = new Array( "ClrClassName","Visible" )\nvar Val = new Array("PmsProgressBar",true )\nvar progressBar= pdProc["FindChild"](prop,Val, 100)\nif(progressBar["Exists"])\n{\nvar citimeOut = 0\nwhile(progressBar["Exists"])\n{\nDelay(1000, "waiting for progess bar to complete")\ncitimeOut++\nif(citimeOut &gt; 300)\nbreak\n}\nLog["Message"]("Change Patient Details successful")\nreturn true\n}\nelse\n{\nproperties = new Array( "ClrClassName", "Visible" )\nvalues = new Array("PmsStatusInformationCombo",true )\nvar messageForm= pdProc["FindChild"](properties, values, 100)\nvar messageCount=messageForm["Items"]["Count"]-1\nvar message=messageForm["Items"]["Item"](messageCount)["Message"]["OleValue"]\nif(message=="Change Patient Details successfully completed.  1 entries were saved. Some instances were ignored.  " ||\nmessage=="Change Patient Details operation started")\n{\nLog["Message"]("Change Patient Details successful")\nreturn true\n}\nelse\n{\nLog["Error"]("Progress bar not found")\nreturn false\n}\n}\n}\n', 'function RightClickPISelectedSeries()\n{\nvar pictorialLayout = GetPictorialIndex()\nvar seriesbefore =  pictorialLayout["Controls"]["Count"]\nfor(var i=0\n{\nif(pictorialLayout["Controls"]["Item"](i)["Card"]["Selected"])\n{\nindexstatus = true\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\nx =pictorialLayout["Controls"]["Item_2"](i)["Location"]["X"]\ny = pictorialLayout["Controls"]["Item_2"](i)["Location"]["Y"]\nwidth = pictorialLayout["Controls"]["Item_2"](i)["Width"]\nheight =  pictorialLayout["Controls"]["Item_2"](i)["Height"]\n\npictorialLayout["HoverMouse"](x + (width/2) , y + (height/2))\npictorialLayout["ClickR"](x + (width/2) , y + (height/2))\npictorialLayout["Keys"]("[Esc]")\n}\n}\n}\n', 'function RunScriptsinRemoteSystem(RemoteIP,AdminUsername,AdminPassword,BasePath,ProjectSuitePath,HostName)\n{\nvar Host = NetworkSuite["Hosts"]["ItemByName"](HostName)\nHost["Address"] = RemoteIP\nHost["BasePath"] = BasePath\nHost["ProjectSourcePath"] = ProjectSuitePath\nHost["UserName"] = AdminUsername\nHost["Password"] = AdminPassword\nHost["CopyProjectToSlave"]()\n\nif (Host["Verify"]() == false)\n{\ni = MessageDlg(Host["Address"] + " machine not able to find in the network, Execution terminated", mtError, i, 0)\nreturn\n}\nelse\n{\nreturn true\n}\n}\n', 'function SelectPISeriesByMouseHover(series)\n{\nvar pictorialLayout = GetPictorialIndex()\nvar seriesbefore =  pictorialLayout["Controls"]["Count"]\nSelectPictorialSeriesBySeriesValue(series)\nvar x\nvar y\nvar width\nvar height\npictorialLayout["VerticalScroll"]["EnableScroll"](true)\nfor(var i=0\n{\nif(series == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"])\n{\nindexstatus = true\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\nx =pictorialLayout["Controls"]["Item_2"](i)["Location"]["X"]\ny = pictorialLayout["Controls"]["Item_2"](i)["Location"]["Y"]\nwidth = pictorialLayout["Controls"]["Item_2"](i)["Width"]\nheight =  pictorialLayout["Controls"]["Item_2"](i)["Height"]\n\npictorialLayout["HoverMouse"](x + (width/2) , y + (height/2))\npictorialLayout["ClickR"](x + (width/2) , y + (height/2))\nDelay(5000)\nbreak\n}\n}\n}\n', 'function SelectPictorialSeriesByIndexvalue(series,description)\n{\nvar indexstatus = false\n\nvar pictorialLayout = GetPictorialIndex()\nvar picounts = pictorialLayout["Controls"]["Count"]\nfor(var i=0\n{\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](false)\n}\nfor(var i=0\n{\nif(description == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_DESCRIPTION"])\n{\nLog["Message"](i)\nindexstatus = true\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\nreturn i\nbreak\n}\n}\n\nif(!indexstatus)\n{\nLog["Checkpoint"]("Series not found")\n}\n}\n', 'function SelectPictorialSeriesBySeriesValue(series)\n{\n\nseriesno=series["split"](",")\nvar indexstatus = false\nvar v = -1\nvar pictorialLayout = GetPictorialIndex()\nvar picounts = pictorialLayout["Controls"]["Count"]\nfor(var i=0\n{\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](false)\n}\nfor(var testj=0\n{\nindexstatus = false\nfor(var i=0\n{\nif(seriesno[testj] == pictorialLayout["Controls"]["Item_2"](i)["Card"]["Tag"]["SERIES_NUMBER"])\n{\nLog["Message"](i)\nindexstatus = true\npictorialLayout["Controls"]["Item"](i)["Card"]["set_Selected"](true)\nv = i\n}\n}\n}\n\nif(!indexstatus)\n{\nLog["Checkpoint"]("Series not found")\n}\nreturn v\n}\n', 'function SeriesFilesCount()\n{\nvar seriesPanel=Sys["Process"]("PatientDirectory")["FindChild"]("ClrClassName","filePanel",100)\nvar grid=seriesPanel["FindChild"]("ClrClassName","BoundColumnSelectedGrid",100)\nvar seriesCount=grid["Views"]["Item"](0)["DataRowCount"]\nreturn seriesCount\n}\n', 'function SeriesReportCount()\n{\nvar seriesPanel=Sys["Process"]("PatientDirectory")["FindChild"]("ClrClassName","ReportPanel",100)\nvar grid=seriesPanel["FindChild"]("ClrClassName","BoundColumnSelectedGrid",100)\nvar seriesCount=grid["Views"]["Item"](0)["DataRowCount"]\nreturn seriesCount\n}\n', 'function SeriesSelect(index)\n{\nvar properties\nvar values\n\nproperties = new Array("Name","Visible")\nvalues = new Array("[\\"WinFormsObject\\"](\\"tabControl\\"))","True")\n\nvar SeriesTab = Sys["Process"]("PatientDirectory")["WinFormsObject"]("PatientDirectoryForm")["WinFormsObject"]("mainContainerPanel")["WinFormsObject"]("rightPanel")["WinFormsObject"]("SplitContainer", "", 1)["WinFormsObject"]("SplitterPanel", "", 2)["FindChild"](properties, values, 100)\n\nfor(var i=0\n{\nif(i==1)\ncontinue\n\ndelay(1000)\nSeriesTab["ClickTab"](SeriesTab["wTabCaption"](i))\nLog["Message"]("Select tab is"+SeriesTab["SelectedIndex"]+ " "+SeriesTab["CanFocus"])\n\nif(i ==  index)\nbreak\n}\n}\n', 'function VerifyCSROIApplication()\n{\nvar calciumScoring\nvar CSMainScene\nvar pmsToolPanel\nvar tableLayoutPanel\nvar pmsComboBox\nvar fieldname = new Array()\nvar fieldvalue = new Array()\nvar afterfieldname = new Array()\nvar afterfieldvalue = new Array()\nvar check =  true\nvar ispib = aqConvert["VarToBool"](ReadLoginSheet("pibMachine"))\nvar process = "PortalAppletHost"\nif(ispib)\nprocess = "PortalAppletHost64"\n\ncalciumScoring = Sys["Process"](process)\nWait(3)\n\nproperties = new Array("ClrClassName","Name", "Visible")\nvalues = new Array("GridControl","[\\"WinFormsObject\\"](\\"gridControl1\\")", true)\nimagegrid  = calciumScoring["FindChild"](properties, values, 100)\ngridcolcount = imagegrid["DataSource"]["Columns"]["Count"]\nfor(var i = 0\n{\nif(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="Total Coronaries")\n{\ntemp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"]\nfor(var j = 0\n{\nfieldvalue[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]\n}\n}\n\nif(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="RowName")\n{\ntemp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"]\nfor(var j = 0\n{\nfieldname[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]\n}\n}\n}\nWait(3)\n\nproperties = new Array("Name", "Visible")\nvalues = new Array("[\\"WinFormsObject\\"](\\"manualSeed\\")", true)\n\nmanualseed = calciumScoring["FindChild"](properties,values, 100)["WinFormsObject"]("comboButton")\nmanualseed["Click"]()\n\nproperties = new Array("ClrClassName", "Visible")\nvalues = new Array("ImageViewer", "True")\n\nimageViewer = calciumScoring["FindChild"](properties, values, 100)\nimageViewer["Click"](575, 216)\nimageViewer["Click"](600, 216)\nWait(3)\n\nfor(var i = 0\n{\nif(imagegrid["DataSource"]["Columns"]["Item"](i)["Caption"]=="Total Coronaries")\n{\ntemp = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Count"]\nfor(var j = 0\n{\nafterfieldvalue[j] = imagegrid["DataSource"]["Columns"]["Item"](i)["Table"]["Rows"]["Item"](j)["Item"](i)["OleValue"]\n}\n}\n}\n\nfor(var i=0\n{\nif(fieldvalue[i]!=afterfieldvalue[i])\n{\nLog["Checkpoint"](fieldname[i]+ " Before ROI value is "+fieldvalue[i]+" After ROI value is "+afterfieldvalue[i])\ncheck =  true\n}\nelse\n{\nLog["Error"](fieldname[i]+ " Before ROI value is "+fieldvalue[i]+" After ROI value is "+afterfieldvalue[i])\ncheck =  false\nbreak\n}\n}\n\nfor (var i = 0\n{\nroi = imageViewer["ImagePresentationState"]["ImageRelativeAnnotators"]["Item"](i)["ClrClassName"]\nif (roi == "CsMFHCAnnotator")\n{\nLog["Checkpoint"]("ROI is available on ImageViewer")\ncheck =  true\nbreak\n}\n}\nreturn check\n}\n', 'function VerifyisPatientSelected(pname)\n{\n\nvar studyGrid = StudyGrid()\n\nvar rowCount= studyGrid["DataSource"]["Table"]["Rows"]["Count"]\nfor(var j=0\n{\nWait(1)\nif(studyGrid["FocusedView"]["GetDataRow"](j)["PATIENTS_NAME"] ==pname)\n{\nWait(2)\nLog["Message"](studyGrid["FocusedView"]["GetDataRow"](j)["IsBlueSelected"])\nif(studyGrid["FocusedView"]["GetDataRow"](j)["IsBlueSelected"]==true)\n{\nstatus=true\nLog["Message"]("Selected study is marked with blue background")\n}\nelse\n{\nstatus=false\nLog["Error"]("Selected study is not marked with blue background")\n}\n}\n}\nreturn status\n}\n', 'function runNetworkLogin()\n{\nvar Tasks, Task\nTasks = NetworkSuite["Jobs"]["ItemByName"]("Login")["Tasks"]\nTask = Tasks["Items"](0)\nTask["Run"](true)\n}\n', 'function runNetworkLogout()\n{\nvar Tasks, Task\nTasks = NetworkSuite["Jobs"]["ItemByName"]("Login")["Tasks"]\nTask = Tasks["Items"](2)\nTask["Run"](true)\n}\n', 'public void Test_AddMethod() {\nBasicMaths bm = new BasicMaths()\ndouble res = bm.Add(10, 10)\nAssert.AreEqual(res, 2)\n}\n', 'public void Test_AddMethod() {\nBasicMaths bm = new BasicMaths()\ndouble res = bm.Add(1, 10)\nAssert.AreEqual(res, 5)\n}\n', 'public void Test_AddMethod() {\nBasicMaths bm = new BasicMaths()\ndouble res = bm.Add(10, 10)\nAssert.AreEqual(res, 2)\n}\n', 'public void Test_AddMethod() {\nBasicMaths bm = new BasicMaths()\ndouble res = bm.Add(1, 10)\nAssert.AreEqual(res, 5)\n}\n']</t>
+  </si>
+  <si>
+    <t>['public void Test_AddMethod() {\nBasicMaths bm = new BasicMaths()\ndouble res = bm.Add(10, 10)\nAssert.AreEqual(res, 20)\n}\n', 'public void Test_DivideMethod() {\nBasicMaths bm = new BasicMaths()\ndouble res = bm.divide(10, 5)\nAssert.AreEqual(res, 2)\n}\n', 'public void Test_MultiplyMethod() {\nBasicMaths bm = new BasicMaths()\ndouble res = bm.Multiply(10, 10)\nAssert.AreEqual(res, 100)\n}\n', 'public void Test_SubstractMethod() {\nBasicMaths bm = new BasicMaths()\ndouble res = bm.Substract(10, 10)\nAssert.AreEqual(res, 0)\n}\n']</t>
+  </si>
+  <si>
+    <t>['int main()\n{\nint m = 22, n = 44\nprintf("values before swap m = %d \\n and n = %d",m,n)\nswap(&amp;m, &amp;n)\n}\n', 'void swap(int *a, int *b)\n{\nint tmp\ntmp = *a\nprintf("\\n values after swap a = %d \\nand b = %d", *a, *b)\n}\n']</t>
+  </si>
+  <si>
+    <t>['int main()\n{\nstring s1("Geeks")\nstring s2("forGeeks")\nrelational_operation(s1, s2)\n\nreturn 0\n}\n', 'void relational_operation(string s1, string s2)\n{\nstring s3 = s1 + s2\n\nif(s1 != s2)\ncout &lt;&lt; s1 &lt;&lt; " is not equal to " &lt;&lt; s2 &lt;&lt; endl\n\nif(s1 &gt; s2)\ncout &lt;&lt; s1 &lt;&lt; " is greater than " &lt;&lt; s2 &lt;&lt; endl\n\nelse if(s1 &lt; s2)\ncout &lt;&lt; s1 &lt;&lt; " is smaller than " &lt;&lt; s2 &lt;&lt; endl\n\nif(s3 == s1 + s2)\ncout &lt;&lt; s3 &lt;&lt; " is equal to " &lt;&lt; s1 + s2 &lt;&lt; endl\n\n}\n']</t>
+  </si>
+  <si>
+    <t>['def create_parser(args):\n""" Function which add the command line arguments required for the commandline input\nof guardrails"""\nfunc_parser = argparse.ArgumentParser(description=\'Guardrails for python programs\')\nfunc_parser.add_argument(\'--path\',\nmetavar=\'--p\',\ntype=str,\nhelp=\'the Input file path for guardrail.ini\')\nreturn func_parser.parse_args(args)\n', 'def validate_return(val, message, guardrail):\n"""\nFunction to validate the returns from subprocess\nParameters:\nval (int): return value from subprocess\nmessage (string): message to be printed.\nguardrail (bool): identifier whether a process or guardrail gate.\nReturns:\nsub-process return value.\n"""\nprocess = "" if guardrail else "task"\nif val:\nmsg = "Guardrail {}, failed {}.".format(process, message)\nLOG.info(msg)  # pragma: no mutate\nsys.exit(val)\nelse:\nmsg = "Guardrail {}, passed {}.".format(process, message)\nLOG.info(msg)  # pragma: no mutate\nreturn\n', 'def create_parser(args):\n""" Function which add the command line arguments required for the commandline input\nof guardrails"""\nfunc_parser = argparse.ArgumentParser(description=\'Guardrails for python programs\')\nfunc_parser.add_argument(\'--path\',\nmetavar=\'--p\',\ntype=str,\nhelp=\'the Input file path for guardrail.ini\')\nreturn func_parser.parse_args(args)\n', 'def generate_pylint_cmd(self):  # pylint: disable=R0201\n"""Function stubbed to return generate_pylint_cmd method return value"""\nreturn "xyz"\n', 'def get_check_pass_fail_status(self, val_1, val_2, val_3):\n"""Function to refactor test check_pass_fail method"""\nguardails_obj = self.get_guardrails_obj()\nwith patch(\'sys.exit\') as exit_mock:\nguardails_obj.check_pass_fail(val_1, val_2, val_3)\nif int(val_1) + int(val_2) + int(val_3) == 120:\nassert not exit_mock.called\nelse:\nassert exit_mock.called\nreturn self.get_log_data(1)\n', 'def get_file_name(folder_name, file_name):\n"""Function to test file_name method"""\nimport os\nini_path = os.path.abspath(os.path.join\n(os.path.dirname(__file__), os.pardir))\nreturn os.path.join(ini_path, folder_name, file_name)\n', 'def get_guardrails_obj():\n"""Function to create guardrails class object"""\nimport os\nini_path = os.path.abspath(os.path.join\n(os.path.dirname(__file__), os.pardir))\nini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")\nreturn Guardails(ini_path)\n', 'def get_log_data(self, line):\n""" function to get the line requested from log data"""\nfile_name = self.get_file_name("guardrails", "guardrails.log")\nfile_variable = open(file_name)\nall_lines_variable = file_variable.readlines()\nstring = all_lines_variable[-line]\nstring = string[0: 0:] + string[23 + 1::]\nreturn string\n', 'def get_test_guardrail_gate_status(self, mock_subproc_call, gate):\n"""Function to test guardrail_test method"""\nguardails_obj = self.get_guardrails_obj()\nmock_subproc_call.return_value = False\nif gate == "guardrail_jscpd":\nguardails_obj.parse_jscpd_report_json = self.return_jscpd_false\nguardails_obj.guardrail_jscpd()\nif gate == "guardrail_test":\nguardails_obj.guardrail_test()\nif gate == "guardrail_coverage":\nguardails_obj.guardrail_coverage()\nreturn self.get_log_data(1), self.get_log_data(3)\nif gate == "guardrail_deadcode":\nguardails_obj.guardrail_deadcode()\nself.assertTrue(mock_subproc_call.called)\nreturn self.get_log_data(1), self.get_log_data(2)\n', 'def get_test_guardrail_gate_status_fail(self, mock_subproc_call, gate):\n"""Function to refactor test guardrail_gating_fail method"""\nguardails_obj = self.get_guardrails_obj()\nmock_subproc_call.return_value = True\nwith patch(\'sys.exit\') as exit_mock:\nif gate == "guardrail_jscpd":\nguardails_obj.parse_jscpd_report_json = self.return_jscpd_false\nguardails_obj.guardrail_jscpd()\nif gate == "guardrail_test":\nguardails_obj.guardrail_test()\nif gate == "guardrail_coverage":\nguardails_obj.guardrail_coverage()\nreturn self.get_log_data(1), self.get_log_data(3)\nif gate == "guardrail_deadcode":\nguardails_obj.guardrail_deadcode()\nself.assertTrue(mock_subproc_call.called)\nassert exit_mock.called\nreturn self.get_log_data(1), self.get_log_data(2)\n', 'def get_validate_return(self, val_1, val_2, val_3):\n"""Function to refactor test validate_return method"""\nguardails_obj = self.get_guardrails_obj()\nwith patch(\'sys.exit\') as exit_mock:\nguardails_obj.validate_return(val_1, val_2, val_3)\nif val_3 is True:\nassert exit_mock.called\nelse:\nassert not exit_mock.called\nreturn self.get_log_data(1)\n', 'def return_jscpd_false(self, val, message):  # pylint: disable=W0613,R0201\n"""Function stubbed to set parse_jscpd_report_json method value to false"""\nreturn False\n', 'def setUp(self):\n""""Sets the directory for the test case"""\nimport os\nini_path = os.path.abspath(os.path.join\n(os.path.dirname(__file__), os.pardir))\nini_path = os.path.join(ini_path, "test_resource", "guardrail.ini")\nconfig = ConfigParser()\nconfig.read(ini_path)\nself.report_folder = (config.get(\'folder\', \'report_folder\'))\nif not os.path.exists(self.report_folder):\nos.makedirs(self.report_folder)\n', 'def stub_get_all_func_cnn():\n"""Function stubbed to return get_all_func_cnn function return value"""\nlist_data = {\n\'get_file_names(...) at core_extractor.py:11\': \'3\',\n\'get_function_names(...) at core_extractor.py:28\': \'7\'}\nreturn list_data\n', 'def stub_globals(guardails_obj):\n"""Function to stub all globals"""\nguardails_obj.src_folder = "abc"\nguardails_obj.test_folder = "test"\nguardails_obj.pytest = "abc"\nguardails_obj.report_folder = "abc/report"\nguardails_obj.cyclo_exclude = "abc/None"\nguardails_obj.python = "python"\nguardails_obj.pylintrc = ".pylintrc"\nguardails_obj.covrc = ".cov"\nguardails_obj.dup_token = 10\nguardails_obj.percent_cov = 80\nguardails_obj.allow_dup = 20\nguardails_obj.cc_limit = 10\nguardails_obj.allow_mutants = 10\nguardails_obj.all_folders = guardails_obj.src_folder + " " + guardails_obj.test_folder\nguardails_obj.linting = True\nguardails_obj.cpd = True\nguardails_obj.cov = True\nguardails_obj.mutation = True\nguardails_obj.deadcode = True\nguardails_obj.cycloc = True\nguardails_obj.lint_ignore = "x"\nguardails_obj.programming_language = "java"\nguardails_obj.jscpd_ignore = "y"\nguardails_obj.dead_code_ignore = "z"\n', 'def stub_validate_return(self, val, message, guardrail):  # pylint: disable=W0613,R0201\n"""Function stubbed to return false"""\nreturn False\n', 'def tearDown(self):\n""""Deletes the log files created."""\nimport os\nini_path = os.path.abspath(os.path.join\n(os.path.dirname(__file__), os.pardir))\nfile_name = os.path.join(ini_path, "guardrails", "guardrails.log")\nif os.path.exists(file_name):\nopen(file_name, \'w\').close()\n', 'def test_call_subprocess_error(self):\n"""Function to test call_subprocess_error method"""\nguardails_obj = self.get_guardrails_obj()\ntry:\nguardails_obj.call_subprocess("lshrs")\nexcept KeyError:\npass\nself.assertNotEqual(guardails_obj.call_subprocess("lshrs"), 0)\n', 'def test_call_subprocess_noerror(self):\n"""Function to test call_subprocess_noerror method"""\nguardails_obj = self.get_guardrails_obj()\nret_val = guardails_obj.call_subprocess("dir")\nself.assertEqual(ret_val, 0)\n', 'def test_check_pass_fail_success(self):\n"""Function to test check_pass_fail_success method"""\nlist_test = [[10, 100, 10, "Guardrail gating, passed mutation"],\n[10, 100, 1, "Guardrail gating, failed mutation"],\n[10, 0, 10, "Guardrail gating, failed: mutation test did not run"]]\nfor i, _ in enumerate(list_test):\nself.assertTrue(list_test[i][3] in self.get_check_pass_fail_status(list_test[i][0],\nlist_test[i][1], list_test[i][2]))\n', 'def test_check_report_dir(self, mock_path_exists, mock_mkdir):\n"""Function to test check_report_dir method"""\nguardails_obj = self.get_guardrails_obj()\nmock_path_exists.return_value = True\nmock_mkdir.return_value = False\nguardails_obj.check_report_dir()\nself.assertTrue(mock_mkdir.called)\n', 'def test_file_exists(self):\n"""Function to test file_exists method"""\nimport os\nGuardrailGlobals.generate_pylint_cmd = self.generate_pylint_cmd\nwith patch(\'sys.exit\') as exit_mock:\nGuardails.file_exists(os.path.abspath(os.path.join(os.path.dirname(__file__), os.pardir)))\nassert not exit_mock.called\n', 'def test_file_exists_exit(self):  # pylint: disable=R0201\n"""Function to test file_exists_exit method"""\nwith patch(\'sys.exit\') as exit_mock:\nGuardails.file_exists("abc")\nassert exit_mock.called\n', 'def test_get_all_func_cnn(self):\n"""Function to test get_all_func_cnn method"""\nfile_name = self.get_file_name("test_resource", "CC.xml")\nguardails_obj = self.get_guardrails_obj()\nguardails_obj.get_index_cnn = Mock()\nguardails_obj.get_index_cnn.return_value = int(2)\nexpec_data = {\n\'get_file_names(...) at core_extractor.py:11\': \'3\',\n\'get_function_names(...) at core_extractor.py:28\': \'7\'}\nroot = ETree.parse(file_name).getroot()\nfor functions in root.iter(\'measure\'):\nif functions.attrib[\'type\'] == "Function":\nassert expec_data == guardails_obj.get_all_func_cnn(functions)\nfile_name = self.get_file_name("test_resource", "CC_test_Func.xml")\nroot = ETree.parse(file_name).getroot()\nwith patch(\'sys.exit\') as exit_mock:\nfor functions in root.iter(\'measure\'):\nif functions.attrib[\'type\'] == "Function":\nguardails_obj.get_all_func_cnn(functions)\nfile_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")\nroot = ETree.parse(file_name).getroot()\nfor functions in root.iter(\'measure\'):\nif functions.attrib[\'type\'] == "Function":\nguardails_obj.get_all_func_cnn(functions)\nassert exit_mock.called\nline = self.get_log_data(2)\nself.assertTrue(\n"Guardrail unable to find the tags item/value/name in the report " in line)\nline = self.get_log_data(1)\nself.assertTrue(\n"Guardrail unable to find the tags item/value/name in the report file " in line)\n', 'def test_get_index_cnn(self):\n"""Function to test get_index_cnn method"""\nfile_name = self.get_file_name("test_resource", "CC.xml")\nguardails_obj = self.get_guardrails_obj()\nroot = ETree.parse(file_name).getroot()\nfor functions in root.iter(\'measure\'):\nif functions.attrib[\'type\'] == "Function":\nassert guardails_obj.get_index_cnn(functions) == 2\nfile_name = self.get_file_name("test_resource", "CC_test_func_empty.xml")\nroot = ETree.parse(file_name).getroot()\nwith patch(\'sys.exit\') as exit_mock:\nfor functions in root.iter(\'measure\'):\nif functions.attrib[\'type\'] == "Function":\nguardails_obj.get_index_cnn(functions)\nassert exit_mock.called\nline = self.get_log_data(1)\nself.assertTrue("Guardrail unable to find the tag CCN in the report " in line)\n', 'def test_guardrail_coverage(self):\n"""Function to test guardrail_coverage method"""\nline_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_coverage")\nprint(line_2)\nself.assertTrue("Guardrail , passed Coverage threshold" in line_1)\nval = r\'mypython -m coverage report --fail-under=85\'\nself.assertTrue(str(val) in line_2)\n', 'def test_guardrail_coverage_fail(self):\n"""Function to test guardrail_coverage_fail method"""\nline_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_coverage")\nprint(line_2)\nself.assertTrue("Guardrail , failed Coverage threshold" in line_1)\nval = r\'mypython -m coverage report --fail-under=85\'\nself.assertTrue(str(val) in line_2)\n', 'def test_guardrail_cyclomatic_complexity(self, mock_subproc_call):\n"""Function to test guardrail_cyclomatic_complexity method"""\nguardails_obj = self.get_guardrails_obj()\nguardails_obj.parse_cyclo_report_xml = Mock()\nguardails_obj.parse_cyclo_report_xml.return_value = {\n\'get_file_names(...) at C:\\\\Projects\\\\PythonRepo\\\\python_sample\\\\FunctionDefExtractor\'\n\'\\\\functiondefextractor\\\\core_extractor.py:11\': \'3\',\n\'get_function_names(...) at C:\\\\Projects\\\\PythonRepo\\\\python_sample\\\\FunctionDefExtractor\'\n\'\\\\functiondefextractor\\\\core_extractor.py:28\': \'7\'}\nmock_subproc_call.return_value = False\nguardails_obj.guardrail_cyclomatic_complexity()\nself.assertTrue(mock_subproc_call.called)\nline = self.get_log_data(1)\nself.assertTrue("Guardrail , passed Cyclomatic complexity" in line)\nmock_subproc_call.return_value = True\nwith patch(\'sys.exit\') as exit_mock:\nguardails_obj.guardrail_cyclomatic_complexity()\nline = self.get_log_data(2)\nself.assertTrue("Guardrail task, failed Cyclomating complexity generation" in line)\nassert exit_mock\n', 'def test_guardrail_deadcode(self):\n"""Function to test guardrail_deadcode method"""\nimport os\nline_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_deadcode")\nself.assertTrue("Guardrail , passed Dead code detection" in line_1)\nval = r\'mypython -m vulture functiondefextractor \' \\\nr\'test  --exclude PythonRepo\' \\\nr\'test --min-confidence 100 &gt;PythonRepo\' \\\nr\'\\REPORT\\deadcode.txt\'\nself.assertTrue(val.replace("\\\\", os.sep) in line_2.replace(\'\\\\\', os.sep).replace("/", os.sep))\n', 'def test_guardrail_deadcode_fail(self):\n"""Function to test guardrail_deadcode_fail method"""\nimport os\nline_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_deadcode")\nself.assertTrue("Guardrail , failed Dead code detection" in line_1)\nval = r\'mypython -m vulture FunctionDefExtractor\' \\\nr\'test  --exclude\' \\\nr\'test --min-confidence 100 &gt;C:\\Projects\' \\\nr\'deadcode.txt\'\nself.assertTrue(val.replace(\'\\\\\', os.sep) in line_2.replace(\'\\\\\', os.sep).replace("/", os.sep))\n', 'def test_guardrail_jscpd(self):\n"""Function to test guardrail_jscpd method"""\nline_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_jscpd")\nself.assertTrue("Guardrail task, passed Copy Paste Detection report generation" in line_1)\nval = r\'command for sub process:jscpd --min-tokens 20  --ignore test  --max-lines 100000 --max-size 100mb --reporters "json,html"\' \\\nr\' --mode "strict" --format "python, java" -o\'\nself.assertTrue(str(val) in line_2)\n', 'def test_guardrail_jscpd_fail(self):\n"""Function to test guardrail_jscpd_fail method"""\nline_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_jscpd")\nself.assertTrue("Guardrail task, failed Copy Paste Detection report generation" in line_1)\nval = r\'command for sub process:jscpd --min-tokens 20  --ignore python_sample\' \\\nr\'test  --max-lines 100000 --max-size 100mb --reporters "json,html" --mode \' \\\nr\'"strict" --format "python, java" -o\'\nself.assertTrue(str(val) in line_2)\n', 'def test_guardrail_lint(self, mock_subproc_call):\n"""Function to test guardrail_lint method"""\nimport os\nguardails_obj = self.get_guardrails_obj()\nglobal_obj = GuardrailGlobals()\nmock_subproc_call.return_value = False\nguardails_obj.lint_ignore = self.get_file_name("test_resource", "pylint_ignore.txt")\nguardails_obj.generate_files_lint = MagicMock(return_value=" ")\nglobal_obj.report_folder = os.getcwd()\nguardails_obj.guardrail_lint()\nself.assertTrue(mock_subproc_call.called)\nline = self.get_log_data(1)\nself.assertTrue("Guardrail , passed Linting." in str(line))\nmock_subproc_call.return_value = True\nwith patch(\'sys.exit\') as exit_mock:\nguardails_obj.guardrail_lint()\nline = self.get_log_data(1)\nself.assertTrue("Guardrail , failed Linting." in str(line))\nassert exit_mock\nself.assertTrue(mock_subproc_call.called)\n', 'def test_guardrail_mutation(self, mock_subproc_call):\n"""Function to test guardrail_mutation method"""\nguardails_obj = self.get_guardrails_obj()\nguardails_obj.parse_mutmut_report_xml = Mock()\nguardails_obj.parse_mutmut_report_xml.return_value = None\nmock_subproc_call.return_value = False\nguardails_obj.guardrail_mutation()\nself.assertTrue(mock_subproc_call.called)\nline = self.get_log_data(1)\nself.assertTrue("Guardrail task, passed Mutation testing report generation." in line)\nmock_subproc_call.return_value = True\nwith patch(\'sys.exit\') as exit_mock:\nguardails_obj.guardrail_mutation()\nline = self.get_log_data(1)\nself.assertTrue("Guardrail task, failed Mutation testing " in line)\nassert exit_mock\n', 'def test_guardrail_test(self):\n"""Function to test guardrail_test method"""\nline_1, line_2 = self.get_test_guardrail_gate_status(gate="guardrail_test")\nself.assertTrue("Guardrail task, passed Test execution and coverage generation" in line_1)\nval = r\'mypython -m pytest FunctionDefExtractor\' \\\nr\' --cov-config=.coveragerc \' \\\nr\'--cov-report "html" --cov=python_sample\' \\\nr\'\\FunctionDefExtractor\\functiondefextractor\'\nself.assertTrue(str(val) in line_2)\n', 'def test_guardrail_test_fail(self):\n"""Function to test guardrail_test_fail method"""\nline_1, line_2 = self.get_test_guardrail_gate_status_fail(gate="guardrail_test")\nself.assertTrue("Guardrail task, failed Test execution and coverage generation" in line_1)\nval = r\'mypython -m pytest FunctionDefExtractor \' \\\nr\'--cov-config=.coveragerc \' \\\nr\'--cov-report "html" --cov=python_sample\' \\\nr\'functiondefextractor\'\nself.assertTrue(str(val) in line_2)\n', 'def test_list_to_str_folders(self):\n"""Function to test list_to_str_folders method"""\nguardails_obj = self.get_guardrails_obj()\nself.stub_globals(guardails_obj)\nself.assertEqual(guardails_obj.list_to_str_folders(), "abc test")\n', 'def test_mov_cov_report(self, mock_subproc_call, mock_shut_rmtr, mock_shut_mov):\n"""Function to test mov_cov_report method"""\nguardails_obj = self.get_guardrails_obj()\nprocess_sub_mock = mock.Mock()\npatcher_exist = mock.patch(\'os.path.exists\')\nmock_thing = patcher_exist.start()\nmock_thing.return_value = True\npatcher_isdir = mock.patch(\'os.path.isdir\')\nmock_thing_isdir = patcher_isdir.start()\nmock_thing_isdir.return_value = True\nmock_subproc_call.return_value = process_sub_mock\nmock_shut_rmtr.return_value = process_sub_mock\nmock_shut_mov.return_value = process_sub_mock\nguardails_obj.validate_return = self.stub_validate_return\nguardails_obj.mov_cov_report()\nself.assertTrue(mock_subproc_call.called)\n', 'def test_orchestrate_guardrails(self):\n"""Function to test orchestrate_guardrails method"""\nguardails_obj = self.get_guardrails_obj()\nguardails_obj.check_report_dir = Mock()\nguardails_obj.mov_cov_report = Mock()\nguardails_obj.mov_cov_report.return_value = True\nself.assertTrue(guardails_obj.mov_cov_report.return_value)\nguardails_obj.guardrail_lint = Mock()\nguardails_obj.guardrail_lint.return_value = True\nself.assertTrue(guardails_obj.guardrail_lint.return_value)\nguardails_obj.guardrail_jscpd = Mock()\nguardails_obj.guardrail_jscpd.return_value = True\nself.assertTrue(guardails_obj.guardrail_jscpd.return_value)\nguardails_obj.guardrail_test = Mock()\nguardails_obj.guardrail_test.return_value = True\nself.assertTrue(guardails_obj.guardrail_test.return_value)\nguardails_obj.guardrail_coverage = Mock()\nguardails_obj.guardrail_coverage.return_value = True\nself.assertTrue(guardails_obj.guardrail_coverage.return_value)\nguardails_obj.guardrail_mutation = Mock()\nguardails_obj.guardrail_mutation.return_value = True\nself.assertTrue(guardails_obj.guardrail_mutation.return_value)\nguardails_obj.guardrail_deadcode = Mock()\nguardails_obj.guardrail_deadcode.return_value = True\nself.assertTrue(guardails_obj.guardrail_deadcode.return_value)\nguardails_obj.guardrail_cyclomatic_complexity = Mock()\nguardails_obj.guardrail_cyclomatic_complexity.return_value = True\nself.assertTrue(guardails_obj.guardrail_cyclomatic_complexity.return_value)\nguardails_obj.orchestrate_guardrails()\n', 'def test_parse_cyclo_report_xml(self):\n"""Function to test parse_cyclo_report_xml method"""\nfile_name = self.get_file_name("test_resource", "CC.xml")\nguardails_obj = self.get_guardrails_obj()\nguardails_obj.get_all_func_cnn = Mock()\nguardails_obj.get_all_func_cnn.return_value = self.stub_get_all_func_cnn\nassert guardails_obj.parse_cyclo_report_xml(file_name)\nfile_name = self.get_file_name("test_resourc", "CC.xml")\nwith patch(\'sys.exit\') as exit_mock:\nguardails_obj.parse_cyclo_report_xml(file_name)\nline = self.get_log_data(1)\nself.assertTrue("cc.xml report file path" in line)\nfile_name = self.get_file_name("test_resource", "CC_test.xml")\nguardails_obj.parse_cyclo_report_xml(file_name)\nfile_name = self.get_file_name("test_resource", "CC_test_None.xml")\nguardails_obj.parse_cyclo_report_xml(file_name)\nline = self.get_log_data(1)\nself.assertTrue("tags required are not found in cc.xml report file path" in line)\nassert exit_mock.called\n', 'def test_parse_jscpd_report_json(self):\n"""Function to test parse_jscpd_report_json method"""\nguardails_obj = self.get_guardrails_obj()\nfile_name = self.get_file_name("test_resource", "jscpd-report.json")\nguardails_obj.parse_jscpd_report_json(5, file_name)\nwith patch(\'sys.exit\') as exit_mock:\nguardails_obj.parse_jscpd_report_json(0, file_name)\nfile_name = self.get_file_name("test_resource", "jscpd-report_test.json")\nguardails_obj.parse_jscpd_report_json(0, file_name)\nfile_name = self.get_file_name("test_resource", "jscpd-report_test _error.json")\nguardails_obj.parse_jscpd_report_json(0, file_name)\nassert exit_mock.called\nline = self.get_log_data(3)\nself.assertTrue("Guardrail gating, failed jscpd." in line)\nline = self.get_log_data(4)\nself.assertTrue("Guardrail gating passed jscpd" in line)\nline = self.get_log_data(2)\nself.assertTrue("jscpd report not correctly generated" in line)\nline = self.get_log_data(1)\nself.assertTrue("jscpd report not generated" in line)\n', 'def test_parse_mutmut_report_xml(self):\n"""Function to test parse_mutmut_report_xml method"""\nfile_name = self.get_file_name("test_resource", "mutmut.xml")\nguardails_obj = self.get_guardrails_obj()\nguardails_obj.parse_mutmut_report_xml(50, file_name)\nline = self.get_log_data(1)\nself.assertTrue("Guardrail gating, passed mutation" in str(line))\nfile_name = self.get_file_name("test_resourc", "mutmut.xml")\nwith patch(\'sys.exit\') as exit_mock:\nguardails_obj.parse_mutmut_report_xml(50, file_name)\nassert exit_mock.called\nline = self.get_log_data(1)\nself.assertTrue("mutmut.xml report file path cound not be found" in line)\n', 'def test_validate_return(self):\n"""Function to test validate_return method"""\nlist_test = [[1, "test", True, "Guardrail , failed test."], [0, "test", False, "Guardrail task, passed test."]]\nfor i, _ in enumerate(list_test):\nassert self.get_validate_return(list_test[i][0], list_test[i][1], list_test[i][2]).strip() \\\n== list_test[i][3]\n']</t>
+  </si>
+  <si>
+    <t>['constructor(public firstName: string, public middleInitial: string, public lastName: string) {\nthis.fullName = firstName + " " + middleInitial + " " + lastName\n}\n', 'function greeter(person: Person) {\nreturn "Hello, " + person.firstName + " " + person.lastName\n}\n']</t>
+  </si>
+  <si>
+    <t>['function greeter(person) {\nreturn "Hello, " + person.firstName + " " + person.lastName\n}\n']</t>
   </si>
 </sst>
 </file>
